--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/plate_1/results.xlsx
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.726</v>
+        <v>17.63</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-585488198.979</v>
+        <v>-0.536</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>721317.718</v>
+        <v>36.942</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.777</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.128</v>
+        <v>15.279</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>-502266.3434488982</v>
+        <v>18.6357972207668</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>179801.6440565643</v>
+        <v>18.6985308154231</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>735774.0514327921</v>
+        <v>18.72116996076434</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-1100432.379743918</v>
+        <v>18.62192525975463</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>-33708.75805756994</v>
+        <v>18.68558406885647</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>469779.4891051373</v>
+        <v>18.71245970107192</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-608844.6049266469</v>
+        <v>18.66739744716642</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>572215.7494406051</v>
+        <v>18.71888234474451</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1129557.938521392</v>
+        <v>18.7402141365918</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>282354.8681896939</v>
+        <v>18.72009616752258</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>581248.9529671732</v>
+        <v>18.7656437229468</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>855531.0574639054</v>
+        <v>18.79320955605919</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-557100.136819914</v>
+        <v>18.62944604854746</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>208115.021253178</v>
+        <v>18.73921426873735</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>748884.878204033</v>
+        <v>18.78414301639588</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-380657.4626656368</v>
+        <v>18.61031259838504</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>149652.4104501571</v>
+        <v>18.69853428222882</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>520195.4703361306</v>
+        <v>18.73020788802078</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-979148.111746944</v>
+        <v>18.58212113160472</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-245649.1076858738</v>
+        <v>18.67241171453701</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>120611.4698173379</v>
+        <v>18.70980909350996</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-703260.5717210294</v>
+        <v>18.64673580661308</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>121555.6465438591</v>
+        <v>18.71974736626635</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-167624.1101143972</v>
+        <v>18.67059148857944</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>785212.7663477552</v>
+        <v>18.74247385523235</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1128012.778310277</v>
+        <v>18.76574870922646</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-486391.0754386621</v>
+        <v>18.66746748692747</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>864638.8415597284</v>
+        <v>18.74078276396275</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1159312.187076709</v>
+        <v>18.76848988695733</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>236790.6428268957</v>
+        <v>18.71506217342403</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1687877.080192727</v>
+        <v>18.77438670220543</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2027468.873317732</v>
+        <v>18.79635201806576</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1078633.32367718</v>
+        <v>18.79150308127882</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1514182.214398183</v>
+        <v>18.84523032760752</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1660412.821029572</v>
+        <v>18.87358274513664</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>123664.2206551605</v>
+        <v>18.69408756036343</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1199934.763482209</v>
+        <v>18.82006070024521</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1525922.653040471</v>
+        <v>18.86648414503985</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-147759.2485303824</v>
+        <v>18.66396146753417</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>556292.6715388261</v>
+        <v>18.76471099356756</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>795520.1707956786</v>
+        <v>18.79739189776288</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-497287.1226544531</v>
+        <v>18.64987376153672</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>428165.5754483792</v>
+        <v>18.7534311929634</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>661390.4579173087</v>
+        <v>18.79210770309189</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-43638.24469985242</v>
+        <v>18.71716091342862</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>961785.174008531</v>
+        <v>18.800940454715</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-424286.8256610992</v>
+        <v>18.67391721271803</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>658954.9546098101</v>
+        <v>18.74466507910248</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>1041113.664173706</v>
+        <v>18.76742642606865</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-595672.2065424247</v>
+        <v>18.67340301308332</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>910907.1093494022</v>
+        <v>18.7456455897615</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>1247557.669180641</v>
+        <v>18.77272692747881</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>170227.90743653</v>
+        <v>18.71954331920082</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>1781446.340154012</v>
+        <v>18.77800546853421</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>2164701.862763673</v>
+        <v>18.79947780334</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>1103187.081161886</v>
+        <v>18.79613002899199</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>1602485.456632953</v>
+        <v>18.84929221114664</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1788386.5266372</v>
+        <v>18.87709933031303</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>52445.3853406907</v>
+        <v>18.7012565139292</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>1274305.558364546</v>
+        <v>18.8252910330343</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1641527.24147436</v>
+        <v>18.87065714368095</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>-289286.916166883</v>
+        <v>18.67015488342199</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>503507.1866290582</v>
+        <v>18.76924075209035</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>772806.3023743811</v>
+        <v>18.80119759814317</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>-550222.3682463581</v>
+        <v>18.65992735551289</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>479537.2823334776</v>
+        <v>18.76187648734884</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>745564.8533940468</v>
+        <v>18.79967756962785</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>-62857.03766813237</v>
+        <v>18.72505340296733</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1050376.718948287</v>
+        <v>18.80753946943829</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>-707668.9797885985</v>
+        <v>18.65882523834831</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>403534.0240895305</v>
+        <v>18.71577345604259</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>1173507.700212236</v>
+        <v>18.73608220990329</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-1059128.86749942</v>
+        <v>18.65070914486446</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>573591.0571027498</v>
+        <v>18.70860529853455</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>1285234.277269847</v>
+        <v>18.73269812729318</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>-314109.0714203886</v>
+        <v>18.69019287309231</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>1468583.013826277</v>
+        <v>18.73702430141757</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>2249639.37138936</v>
+        <v>18.7561509056107</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>785586.6892969455</v>
+        <v>18.7431365488173</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>1298490.17171714</v>
+        <v>18.78487423934914</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>1720142.975586696</v>
+        <v>18.80968581526506</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>-427427.9817250092</v>
+        <v>18.66231364893571</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>815717.5314666119</v>
+        <v>18.76201895927873</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>1572167.175429037</v>
+        <v>18.80228920156698</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>-408761.3675325764</v>
+        <v>18.64361588510584</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>430392.2893724056</v>
+        <v>18.72360802374788</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>950132.4190290933</v>
+        <v>18.75201869342379</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>-910986.7300265258</v>
+        <v>18.62428177427353</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>208217.2748419649</v>
+        <v>18.70627958236958</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>728626.0093329097</v>
+        <v>18.7398035357679</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>-459711.7577238875</v>
+        <v>18.6803414103907</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>778892.1161624022</v>
+        <v>18.74665691831247</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>521922.3021922727</v>
+        <v>18.74948331540639</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>67901.89792559933</v>
+        <v>18.71997220418854</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>327541.638038597</v>
+        <v>18.78759212513484</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>546988.2998995688</v>
+        <v>18.82705163182765</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>-480829.754012376</v>
+        <v>18.60182034855196</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>116948.977686</v>
+        <v>18.75626311008415</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>473676.0117793451</v>
+        <v>18.81908463603806</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>-468583.5243265459</v>
+        <v>18.62728709579838</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>145378.3251500243</v>
+        <v>18.72782366662817</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>586522.0392914673</v>
+        <v>18.76437759077314</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-967530.4452604323</v>
+        <v>18.60232676657954</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>-164619.4239553031</v>
+        <v>18.70631258436462</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>290929.4454491446</v>
+        <v>18.74921369768407</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-576066.2128371958</v>
+        <v>18.67506270877278</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>306221.225359552</v>
+        <v>18.75918005264327</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>795846.7373752246</v>
+        <v>18.79336677153474</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>273630.6511178327</v>
+        <v>18.77391429735239</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>627681.571395822</v>
+        <v>18.85603944598632</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>943704.504119256</v>
+        <v>18.90333033576884</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>-410337.778096167</v>
+        <v>18.65015101508599</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>291866.4990737065</v>
+        <v>18.82672696976585</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>738326.7774101816</v>
+        <v>18.89882631513598</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>1223114.810771487</v>
+        <v>18.83166236478231</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>643847.0820154154</v>
+        <v>18.82388965867392</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>982743.1298113618</v>
+        <v>18.9028923735698</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>1108698.27077257</v>
+        <v>18.94364960754848</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18965.79808347986</v>
+        <v>18.69689091316059</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>818429.9242883167</v>
+        <v>18.87351837805926</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>1040036.353863408</v>
+        <v>18.93864700387591</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>-68794.9777455849</v>
+        <v>18.70043165004402</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>681426.1099763025</v>
+        <v>18.81469034760397</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>976169.1970709387</v>
+        <v>18.85249415582215</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>-313518.7277056387</v>
+        <v>18.6919807314387</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>641719.4548935948</v>
+        <v>18.81055661612605</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>943130.1515605835</v>
+        <v>18.85501259393405</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>260107.274708986</v>
+        <v>18.76690747416465</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>1284318.791966575</v>
+        <v>18.86286791523412</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>1613763.445068883</v>
+        <v>18.89826341757535</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>949043.9337262006</v>
+        <v>18.90617387438623</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>1352923.119098212</v>
+        <v>19.00105901852454</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>1551010.683885988</v>
+        <v>19.05007614433237</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>229052.4600099958</v>
+        <v>18.77314814618434</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>1086198.144534774</v>
+        <v>18.97405406898607</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>1378433.781350874</v>
+        <v>19.04893884863794</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>1345585.839889006</v>
+        <v>18.83757005553997</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>675811.4556844623</v>
+        <v>18.83223751245249</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>1056592.057365295</v>
+        <v>18.9102563865972</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>1210970.746813392</v>
+        <v>18.95021020022476</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>-9611.751684927807</v>
+        <v>18.70855404668942</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>889642.9960264184</v>
+        <v>18.8823294566384</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>1141929.233625657</v>
+        <v>18.94597067140809</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>-109228.9752728132</v>
+        <v>18.70983079142001</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>727335.9059844848</v>
+        <v>18.8221011124063</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>1047837.649867341</v>
+        <v>18.85902814905866</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>-272143.0507224499</v>
+        <v>18.70558396225822</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>783961.4877569813</v>
+        <v>18.82219024968344</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>1113174.009729458</v>
+        <v>18.86559850948037</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>355624.3277231345</v>
+        <v>18.77786481453413</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>1483678.361904798</v>
+        <v>18.87223920875693</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>1841985.83936775</v>
+        <v>18.90680406971948</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>1064263.147503317</v>
+        <v>18.91779174651808</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1510408.617086692</v>
+        <v>19.01130277723071</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>1732773.008833431</v>
+        <v>19.05927516865327</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>281386.8977705124</v>
+        <v>18.78823538154274</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>1235124.860866408</v>
+        <v>18.98570687154051</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>1553897.185682923</v>
+        <v>19.05881348677118</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>1343296.905180497</v>
+        <v>18.77331766264823</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>444193.8079874294</v>
+        <v>18.75403532736962</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>860856.3693140547</v>
+        <v>18.81579475792271</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>1190952.461724565</v>
+        <v>18.85129191664598</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>-350111.4210385216</v>
+        <v>18.64869234427239</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>593611.8819143627</v>
+        <v>18.78880633021945</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>1098665.161522935</v>
+        <v>18.84511115602114</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>-280796.6076335618</v>
+        <v>18.66456832094494</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>655129.8473833489</v>
+        <v>18.75559381362433</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1254952.565862959</v>
+        <v>18.7883389034915</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>-685718.9329628241</v>
+        <v>18.64876571232275</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>510685.9642465853</v>
+        <v>18.74303306252602</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>1133047.036014828</v>
+        <v>18.78144525561322</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>-45921.48979567442</v>
+        <v>18.71168486834486</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>1254169.374001745</v>
+        <v>18.78795061055355</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>1920476.269953211</v>
+        <v>18.81856440768075</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>874967.0178407383</v>
+        <v>18.80970086733911</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>1406901.610906078</v>
+        <v>18.88444537916575</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>1849905.186346782</v>
+        <v>18.92690434084111</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>-98574.83798420601</v>
+        <v>18.69933627030687</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>966018.0007993209</v>
+        <v>18.85928144443829</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>1575010.118077686</v>
+        <v>18.92382664199895</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>-402636.5853388907</v>
+        <v>18.63027523423915</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>54449.03016768445</v>
+        <v>18.69855198938304</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>356958.251979841</v>
+        <v>18.72212872998972</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-725219.077465619</v>
+        <v>18.61161001569265</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>765.5449999850211</v>
+        <v>18.68058741250826</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>252742.2077748002</v>
+        <v>18.70870528645118</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>-369972.6887856083</v>
+        <v>18.6632980201383</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>441825.2152662299</v>
+        <v>18.71907683299489</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>731738.1842713283</v>
+        <v>18.74133183199697</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>258565.9314378616</v>
+        <v>18.72067275327051</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>437359.1614042294</v>
+        <v>18.76818568126883</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>578829.9388178482</v>
+        <v>18.79681309594414</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>-373656.1900050525</v>
+        <v>18.61655110514991</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>142716.6925157863</v>
+        <v>18.73582808584889</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>412451.8650146686</v>
+        <v>18.78314308375358</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>-163780.8293333168</v>
+        <v>18.61742350440387</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>244307.6787964782</v>
+        <v>18.71412283379343</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>457535.7198401924</v>
+        <v>18.74731094810544</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-569731.138044058</v>
+        <v>18.58256153262362</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>-15736.29984244098</v>
+        <v>18.68120332183173</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>187758.6646476124</v>
+        <v>18.72054131319364</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-296084.4951843499</v>
+        <v>18.65535970612731</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>326912.2806136431</v>
+        <v>18.73511568147826</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>-276108.9174138892</v>
+        <v>18.66231488163477</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>373739.4782930551</v>
+        <v>18.74080393812163</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>565263.785729951</v>
+        <v>18.76495272711532</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-394558.0342588574</v>
+        <v>18.65502279679102</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>536487.9699411201</v>
+        <v>18.73476648846006</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>683927.8926740218</v>
+        <v>18.76365990736458</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>101285.8307259375</v>
+        <v>18.70962280199997</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>1106610.94515095</v>
+        <v>18.77414310514061</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>1286438.371287314</v>
+        <v>18.79697887721833</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>724001.5862815909</v>
+        <v>18.79196207291675</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>1001390.189545933</v>
+        <v>18.84850746287696</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>1090273.361276702</v>
+        <v>18.87785696506594</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>12932.52119758035</v>
+        <v>18.68011293582174</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>752305.7792059178</v>
+        <v>18.8174668675398</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>915850.731721693</v>
+        <v>18.86621659312869</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>-44544.84591915284</v>
+        <v>18.66992604117583</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>483957.844764311</v>
+        <v>18.78065591503504</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>628217.3995325816</v>
+        <v>18.81479362336718</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-259004.085246378</v>
+        <v>18.65008640687569</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>429913.1266239706</v>
+        <v>18.76357301020582</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>565035.8613946445</v>
+        <v>18.8041450674497</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>126897.1117849404</v>
+        <v>18.72651609651098</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>875682.9622677565</v>
+        <v>18.81832190884661</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>-539398.5320558541</v>
+        <v>18.66400175042212</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>198106.0174034325</v>
+        <v>18.74129746637674</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>423467.4974330035</v>
+        <v>18.76493070518037</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-542231.5092568741</v>
+        <v>18.65959598475673</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>493952.5836918814</v>
+        <v>18.73822728989731</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>677061.9242949287</v>
+        <v>18.76648653673654</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>-30345.11550368004</v>
+        <v>18.71266698924644</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>1083308.779591889</v>
+        <v>18.77629393772498</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>1300200.380578733</v>
+        <v>18.79863246023328</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>684337.8931754952</v>
+        <v>18.79478715106203</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>1002044.867031946</v>
+        <v>18.85082415749484</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>1126178.104965181</v>
+        <v>18.87964218943683</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>-93555.44250916687</v>
+        <v>18.68587324493497</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>744044.3119349589</v>
+        <v>18.82119704949514</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>942601.0095057228</v>
+        <v>18.86886402841366</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>-188419.9447706894</v>
+        <v>18.67379305497296</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>402003.3929146583</v>
+        <v>18.78274685488986</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>572318.1939462118</v>
+        <v>18.81615063941461</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-333348.9855401759</v>
+        <v>18.65820983230383</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>428489.3999947286</v>
+        <v>18.76999584738286</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>591699.0111261101</v>
+        <v>18.80967366312939</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>70947.37488802486</v>
+        <v>18.73236400970626</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>895140.5391847363</v>
+        <v>18.82280319631947</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>-696168.8094276936</v>
+        <v>18.65375165446542</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>53258.48573775537</v>
+        <v>18.71579237375655</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>493729.3819004533</v>
+        <v>18.73696052739794</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-794487.8191997922</v>
+        <v>18.64175054431533</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>319803.3597316808</v>
+        <v>18.70455657346886</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>702038.4166444167</v>
+        <v>18.72978258403224</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>-282643.315224305</v>
+        <v>18.68677634433399</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>943793.5503115462</v>
+        <v>18.73757319781789</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>1375202.997447857</v>
+        <v>18.75754382540073</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>537287.4496456083</v>
+        <v>18.7441636038251</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>853670.3730209102</v>
+        <v>18.7878212683529</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>1096283.278222083</v>
+        <v>18.81362332400727</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>-367249.0428690519</v>
+        <v>18.65134613486777</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>476575.624684408</v>
+        <v>18.75980041719572</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>879220.4461137792</v>
+        <v>18.80223908068372</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>-227435.4473431545</v>
+        <v>18.65013951910963</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>407026.9612515202</v>
+        <v>18.73788811013577</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>720878.5074776307</v>
+        <v>18.76768100262686</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-543435.4168414574</v>
+        <v>18.62540341686806</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>292077.988861207</v>
+        <v>18.71506801666869</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>598056.440319704</v>
+        <v>18.75035709480271</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-135927.776550889</v>
+        <v>18.68873515220644</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>789528.5465956612</v>
+        <v>18.76124425864101</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>555260.4238008381</v>
+        <v>18.76631626422592</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>201526.5983265112</v>
+        <v>18.73952333183751</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>392957.4926768813</v>
+        <v>18.81130473807399</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>516943.0336035915</v>
+        <v>18.85254638245195</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>-238621.7664629185</v>
+        <v>18.60389215943169</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>218635.5731891573</v>
+        <v>18.77298156043378</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>411080.1845693109</v>
+        <v>18.83948712731983</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>-169918.3648333993</v>
+        <v>18.65114356458989</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>351748.076301585</v>
+        <v>18.76223538225695</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>606427.0416515355</v>
+        <v>18.80080494981626</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-607681.9530999153</v>
+        <v>18.62024592950079</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>57223.29989564538</v>
+        <v>18.73489972270205</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>315495.6590447469</v>
+        <v>18.78030789405128</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-212709.4278879977</v>
+        <v>18.70187290746835</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>512202.7053839237</v>
+        <v>18.79461542895488</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>795437.0740168088</v>
+        <v>18.83072247240293</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>364211.332107089</v>
+        <v>18.81902391267553</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>651969.3568512794</v>
+        <v>18.90770597007075</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>848174.6757346381</v>
+        <v>18.95761569864524</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>-180669.616492722</v>
+        <v>18.67703971336812</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>410750.3805291551</v>
+        <v>18.87201674322707</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>656916.3502093528</v>
+        <v>18.94878546858235</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>1031852.400656867</v>
+        <v>18.85046242208079</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>573279.7957733268</v>
+        <v>18.84648386365918</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>819967.7749577559</v>
+        <v>18.93090245976816</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>901649.8052349667</v>
+        <v>18.97339120815232</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>80625.88964362728</v>
+        <v>18.70075671949935</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>679482.3041827376</v>
+        <v>18.89467993242159</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>803666.7302634914</v>
+        <v>18.96346481983057</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>59528.61372414306</v>
+        <v>18.72700735063533</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>667200.1475905996</v>
+        <v>18.8535177715542</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>839284.6032601503</v>
+        <v>18.89330082386736</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-173727.4289255512</v>
+        <v>18.71390006969193</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>589102.3305652419</v>
+        <v>18.84493698371473</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>760902.8190462298</v>
+        <v>18.89187953136859</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>332508.0239793247</v>
+        <v>18.79857515342656</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>1146951.196474762</v>
+        <v>18.90461750972975</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>1339743.070513244</v>
+        <v>18.94190696977204</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>803704.3623004052</v>
+        <v>18.95972019391819</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>1120896.669131931</v>
+        <v>19.06263823681527</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>1253370.971643436</v>
+        <v>19.1142666051595</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>237771.6590322256</v>
+        <v>18.80717167117454</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>928751.8487716505</v>
+        <v>19.02947688302231</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>1090123.762699184</v>
+        <v>19.10904934069622</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>1080330.68251384</v>
+        <v>18.85424041078289</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>568011.6110533313</v>
+        <v>18.85222492633553</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>842440.8778327254</v>
+        <v>18.93568664890856</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>949551.0840318792</v>
+        <v>18.97738032385622</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>31571.43145926749</v>
+        <v>18.71032341030684</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>700180.6875875706</v>
+        <v>18.90121102316998</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>850919.8406059218</v>
+        <v>18.96846104072784</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>-4770.603878376573</v>
+        <v>18.73409139000036</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>666029.8848540762</v>
+        <v>18.85844598251741</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>859504.4530773635</v>
+        <v>18.89732555056461</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-175547.8168372858</v>
+        <v>18.72562507350332</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>661024.9146055138</v>
+        <v>18.85453864879139</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>855685.3078501307</v>
+        <v>18.90039567296106</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>366576.1012099715</v>
+        <v>18.80748504224388</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>1256887.856049733</v>
+        <v>18.91181837299245</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>1473427.319612024</v>
+        <v>18.94824991996023</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>865179.8560731857</v>
+        <v>18.96864486619412</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>1212156.788909286</v>
+        <v>19.07015185701526</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>1366021.960335115</v>
+        <v>19.1207168938579</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>253413.3584737094</v>
+        <v>18.82009767092176</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>1015102.996471365</v>
+        <v>19.03868538011601</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>1198362.251557504</v>
+        <v>19.11639936703788</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>1127767.317194325</v>
+        <v>18.78923932750205</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>464775.6441829394</v>
+        <v>18.77262112857355</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>767071.3867515585</v>
+        <v>18.83831044352475</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>968960.5656638583</v>
+        <v>18.87545564823743</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>-163733.6549243487</v>
+        <v>18.65171544431845</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>546960.7680950195</v>
+        <v>18.805245083617</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>836432.967180124</v>
+        <v>18.86489029680145</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>-35454.49897731631</v>
+        <v>18.68684593974045</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>740090.2214932863</v>
+        <v>18.78748861995832</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>1097110.365191275</v>
+        <v>18.8220596464937</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-410813.4329895591</v>
+        <v>18.66639086255702</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>561684.6470592748</v>
+        <v>18.77039979646521</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>926348.4474916457</v>
+        <v>18.81107873695121</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>187999.3939434587</v>
+        <v>18.73715802022363</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>1238675.616009262</v>
+        <v>18.82130176791931</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>1635653.684975143</v>
+        <v>18.85365341216698</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>820267.577653462</v>
+        <v>18.85215238396159</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>1243854.89671236</v>
+        <v>18.93297140419541</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>1528505.347905112</v>
+        <v>18.97782080076659</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>51814.45403727336</v>
+        <v>18.72556294508397</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>928389.5451181901</v>
+        <v>18.90228619445606</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>1276254.076054882</v>
+        <v>18.97104466278353</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>-402636.5853388907</v>
+        <v>18.63027523423915</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>54449.03016768445</v>
+        <v>18.69855198938304</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>356958.251979841</v>
+        <v>18.72212872998972</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-725219.077465619</v>
+        <v>18.61161001569265</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>765.5449999850211</v>
+        <v>18.68058741250826</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>252742.2077748002</v>
+        <v>18.70870528645118</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>-369972.6887856083</v>
+        <v>18.6632980201383</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>441825.2152662299</v>
+        <v>18.71907683299489</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>731738.1842713283</v>
+        <v>18.74133183199697</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>258565.9314378616</v>
+        <v>18.72067275327051</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>437359.1614042294</v>
+        <v>18.76818568126883</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>578829.9388178482</v>
+        <v>18.79681309594414</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>-373656.1900050525</v>
+        <v>18.61655110514991</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>142716.6925157863</v>
+        <v>18.73582808584889</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>412451.8650146686</v>
+        <v>18.78314308375358</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>-163780.8293333168</v>
+        <v>18.61742350440387</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>244307.6787964782</v>
+        <v>18.71412283379343</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>457535.7198401924</v>
+        <v>18.74731094810544</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-569731.138044058</v>
+        <v>18.58256153262362</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>-15736.29984244098</v>
+        <v>18.68120332183173</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>187758.6646476124</v>
+        <v>18.72054131319364</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>-296084.4951843499</v>
+        <v>18.65535970612731</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>326912.2806136431</v>
+        <v>18.73511568147826</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>-276108.9174138892</v>
+        <v>18.66231488163477</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>373739.4782930551</v>
+        <v>18.74080393812163</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>565263.785729951</v>
+        <v>18.76495272711532</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-394558.0342588574</v>
+        <v>18.65502279679102</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>536487.9699411201</v>
+        <v>18.73476648846006</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>683927.8926740218</v>
+        <v>18.76365990736458</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>101285.8307259375</v>
+        <v>18.70962280199997</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>1106610.94515095</v>
+        <v>18.77414310514061</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>1286438.371287314</v>
+        <v>18.79697887721833</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>724001.5862815909</v>
+        <v>18.79196207291675</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>1001390.189545933</v>
+        <v>18.84850746287696</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>1090273.361276702</v>
+        <v>18.87785696506594</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>12932.52119758035</v>
+        <v>18.68011293582174</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>752305.7792059178</v>
+        <v>18.8174668675398</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>915850.731721693</v>
+        <v>18.86621659312869</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>-44544.84591915284</v>
+        <v>18.66992604117583</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>483957.844764311</v>
+        <v>18.78065591503504</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>628217.3995325816</v>
+        <v>18.81479362336718</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-259004.085246378</v>
+        <v>18.65008640687569</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>429913.1266239706</v>
+        <v>18.76357301020582</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>565035.8613946445</v>
+        <v>18.8041450674497</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>126897.1117849404</v>
+        <v>18.72651609651098</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>875682.9622677565</v>
+        <v>18.81832190884661</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>-539398.5320558541</v>
+        <v>18.66400175042212</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>198106.0174034325</v>
+        <v>18.74129746637674</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>423467.4974330035</v>
+        <v>18.76493070518037</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-542231.5092568741</v>
+        <v>18.65959598475673</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>493952.5836918814</v>
+        <v>18.73822728989731</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>677061.9242949287</v>
+        <v>18.76648653673654</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>-30345.11550368004</v>
+        <v>18.71266698924644</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>1083308.779591889</v>
+        <v>18.77629393772498</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>1300200.380578733</v>
+        <v>18.79863246023328</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>684337.8931754952</v>
+        <v>18.79478715106203</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>1002044.867031946</v>
+        <v>18.85082415749484</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>1126178.104965181</v>
+        <v>18.87964218943683</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>-93555.44250916687</v>
+        <v>18.68587324493497</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>744044.3119349589</v>
+        <v>18.82119704949514</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>942601.0095057228</v>
+        <v>18.86886402841366</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>-188419.9447706894</v>
+        <v>18.67379305497296</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>402003.3929146583</v>
+        <v>18.78274685488986</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>572318.1939462118</v>
+        <v>18.81615063941461</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-333348.9855401759</v>
+        <v>18.65820983230383</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>428489.3999947286</v>
+        <v>18.76999584738286</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>591699.0111261101</v>
+        <v>18.80967366312939</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>70947.37488802486</v>
+        <v>18.73236400970626</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>895140.5391847363</v>
+        <v>18.82280319631947</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>-696168.8094276936</v>
+        <v>18.65375165446542</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>53258.48573775537</v>
+        <v>18.71579237375655</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>493729.3819004533</v>
+        <v>18.73696052739794</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-794487.8191997922</v>
+        <v>18.64175054431533</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>319803.3597316808</v>
+        <v>18.70455657346886</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>702038.4166444167</v>
+        <v>18.72978258403224</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-282643.315224305</v>
+        <v>18.68677634433399</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>943793.5503115462</v>
+        <v>18.73757319781789</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>1375202.997447857</v>
+        <v>18.75754382540073</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>537287.4496456083</v>
+        <v>18.7441636038251</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>853670.3730209102</v>
+        <v>18.7878212683529</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>1096283.278222083</v>
+        <v>18.81362332400727</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>-367249.0428690519</v>
+        <v>18.65134613486777</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>476575.624684408</v>
+        <v>18.75980041719572</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>879220.4461137792</v>
+        <v>18.80223908068372</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>-227435.4473431545</v>
+        <v>18.65013951910963</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>407026.9612515202</v>
+        <v>18.73788811013577</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>720878.5074776307</v>
+        <v>18.76768100262686</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-543435.4168414574</v>
+        <v>18.62540341686806</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>292077.988861207</v>
+        <v>18.71506801666869</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>598056.440319704</v>
+        <v>18.75035709480271</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>-135927.776550889</v>
+        <v>18.68873515220644</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>789528.5465956612</v>
+        <v>18.76124425864101</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>555260.4238008381</v>
+        <v>18.76631626422592</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>201526.5983265112</v>
+        <v>18.73952333183751</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>392957.4926768813</v>
+        <v>18.81130473807399</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>516943.0336035915</v>
+        <v>18.85254638245195</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>-238621.7664629185</v>
+        <v>18.60389215943169</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>218635.5731891573</v>
+        <v>18.77298156043378</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>411080.1845693109</v>
+        <v>18.83948712731983</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>-169918.3648333993</v>
+        <v>18.65114356458989</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>351748.076301585</v>
+        <v>18.76223538225695</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>606427.0416515355</v>
+        <v>18.80080494981626</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-607681.9530999153</v>
+        <v>18.62024592950079</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>57223.29989564538</v>
+        <v>18.73489972270205</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>315495.6590447469</v>
+        <v>18.78030789405128</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-212709.4278879977</v>
+        <v>18.70187290746835</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>512202.7053839237</v>
+        <v>18.79461542895488</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>795437.0740168088</v>
+        <v>18.83072247240293</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>364211.332107089</v>
+        <v>18.81902391267553</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>651969.3568512794</v>
+        <v>18.90770597007075</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>848174.6757346381</v>
+        <v>18.95761569864524</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>-180669.616492722</v>
+        <v>18.67703971336812</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>410750.3805291551</v>
+        <v>18.87201674322707</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>656916.3502093528</v>
+        <v>18.94878546858235</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>1031852.400656867</v>
+        <v>18.85046242208079</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>573279.7957733268</v>
+        <v>18.84648386365918</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>819967.7749577559</v>
+        <v>18.93090245976816</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>901649.8052349667</v>
+        <v>18.97339120815232</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>80625.88964362728</v>
+        <v>18.70075671949935</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>679482.3041827376</v>
+        <v>18.89467993242159</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>803666.7302634914</v>
+        <v>18.96346481983057</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>59528.61372414306</v>
+        <v>18.72700735063533</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>667200.1475905996</v>
+        <v>18.8535177715542</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>839284.6032601503</v>
+        <v>18.89330082386736</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-173727.4289255512</v>
+        <v>18.71390006969193</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>589102.3305652419</v>
+        <v>18.84493698371473</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>760902.8190462298</v>
+        <v>18.89187953136859</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>332508.0239793247</v>
+        <v>18.79857515342656</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>1146951.196474762</v>
+        <v>18.90461750972975</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>1339743.070513244</v>
+        <v>18.94190696977204</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>803704.3623004052</v>
+        <v>18.95972019391819</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>1120896.669131931</v>
+        <v>19.06263823681527</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>1253370.971643436</v>
+        <v>19.1142666051595</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>237771.6590322256</v>
+        <v>18.80717167117454</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>928751.8487716505</v>
+        <v>19.02947688302231</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>1090123.762699184</v>
+        <v>19.10904934069622</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>1080330.68251384</v>
+        <v>18.85424041078289</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>568011.6110533313</v>
+        <v>18.85222492633553</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>842440.8778327254</v>
+        <v>18.93568664890856</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>949551.0840318792</v>
+        <v>18.97738032385622</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>31571.43145926749</v>
+        <v>18.71032341030684</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>700180.6875875706</v>
+        <v>18.90121102316998</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>850919.8406059218</v>
+        <v>18.96846104072784</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>-4770.603878376573</v>
+        <v>18.73409139000036</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>666029.8848540762</v>
+        <v>18.85844598251741</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>859504.4530773635</v>
+        <v>18.89732555056461</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-175547.8168372858</v>
+        <v>18.72562507350332</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>661024.9146055138</v>
+        <v>18.85453864879139</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>855685.3078501307</v>
+        <v>18.90039567296106</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>366576.1012099715</v>
+        <v>18.80748504224388</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>1256887.856049733</v>
+        <v>18.91181837299245</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>1473427.319612024</v>
+        <v>18.94824991996023</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>865179.8560731857</v>
+        <v>18.96864486619412</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>1212156.788909286</v>
+        <v>19.07015185701526</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>1366021.960335115</v>
+        <v>19.1207168938579</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>253413.3584737094</v>
+        <v>18.82009767092176</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>1015102.996471365</v>
+        <v>19.03868538011601</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>1198362.251557504</v>
+        <v>19.11639936703788</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>1127767.317194325</v>
+        <v>18.78923932750205</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>464775.6441829394</v>
+        <v>18.77262112857355</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>767071.3867515585</v>
+        <v>18.83831044352475</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>968960.5656638583</v>
+        <v>18.87545564823743</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>-163733.6549243487</v>
+        <v>18.65171544431845</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>546960.7680950195</v>
+        <v>18.805245083617</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>836432.967180124</v>
+        <v>18.86489029680145</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>-35454.49897731631</v>
+        <v>18.68684593974045</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>740090.2214932863</v>
+        <v>18.78748861995832</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>1097110.365191275</v>
+        <v>18.8220596464937</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-410813.4329895591</v>
+        <v>18.66639086255702</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>561684.6470592748</v>
+        <v>18.77039979646521</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>926348.4474916457</v>
+        <v>18.81107873695121</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>187999.3939434587</v>
+        <v>18.73715802022363</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>1238675.616009262</v>
+        <v>18.82130176791931</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>1635653.684975143</v>
+        <v>18.85365341216698</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>820267.577653462</v>
+        <v>18.85215238396159</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>1243854.89671236</v>
+        <v>18.93297140419541</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>1528505.347905112</v>
+        <v>18.97782080076659</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>51814.45403727336</v>
+        <v>18.72556294508397</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>928389.5451181901</v>
+        <v>18.90228619445606</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>1276254.076054882</v>
+        <v>18.97104466278353</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>-1098086.080061468</v>
+        <v>18.60022978129579</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>-622074.5366970126</v>
+        <v>18.6624227210328</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>-118145.38686472</v>
+        <v>18.68518344936467</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>-1674715.799063256</v>
+        <v>18.58179710492424</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>-842950.6642702938</v>
+        <v>18.64472622731383</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>-390234.9107144012</v>
+        <v>18.6717584745299</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>-1411624.729464188</v>
+        <v>18.62970407946121</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>-470668.551402817</v>
+        <v>18.68058948865191</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>33900.87673757522</v>
+        <v>18.70203838451957</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>-327104.2265153733</v>
+        <v>18.67283296123476</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>-165011.7298505037</v>
+        <v>18.71712768072969</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>90960.79002181473</v>
+        <v>18.74487940397709</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>-1033834.145751501</v>
+        <v>18.58070076498132</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>-487683.1385783448</v>
+        <v>18.68939125608229</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>341.1600290648607</v>
+        <v>18.73462362680558</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>-746616.7434856587</v>
+        <v>18.56634930556195</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>-344953.2512418394</v>
+        <v>18.65401710355758</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>-4311.351065740662</v>
+        <v>18.68590186718458</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-1313021.488552631</v>
+        <v>18.5322591161041</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>-724207.721408388</v>
+        <v>18.62176870633609</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>-387768.5497598675</v>
+        <v>18.65942841862303</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-1176222.584229915</v>
+        <v>18.59999816776638</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>-499916.4415015358</v>
+        <v>18.67236600427831</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>-784642.6946136277</v>
+        <v>18.63139124089515</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>-29987.73194343322</v>
+        <v>18.70276735333901</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>279423.5548452751</v>
+        <v>18.72615720246114</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>-1106184.760484435</v>
+        <v>18.62342394491571</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>18876.4088325763</v>
+        <v>18.69603681579746</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>282152.0002728489</v>
+        <v>18.72389472777809</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>-611005.5287959439</v>
+        <v>18.67371578692936</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>609593.8844409926</v>
+        <v>18.73246271762684</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>916198.7330802572</v>
+        <v>18.75453950425646</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>433144.0395105261</v>
+        <v>18.73981186467194</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>738998.8014213569</v>
+        <v>18.79227529968235</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>880218.1217907009</v>
+        <v>18.82081116494416</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>-392743.4640830535</v>
+        <v>18.64081241015656</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>471967.8503008425</v>
+        <v>18.76576071826205</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>765083.3828305957</v>
+        <v>18.8124823877585</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>-532285.6454186882</v>
+        <v>18.61559139626007</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>47833.70445693674</v>
+        <v>18.71584624538626</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>268495.1190405595</v>
+        <v>18.7487339699347</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>-867396.5481844416</v>
+        <v>18.59525622714403</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>-81606.66859133009</v>
+        <v>18.69808437433801</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>133690.0078069315</v>
+        <v>18.73702031937314</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>307994.8896191557</v>
+        <v>18.74917503946661</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>-1066462.735419675</v>
+        <v>18.63559217693882</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>-193579.9399819097</v>
+        <v>18.70586450810976</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>154178.2259897717</v>
+        <v>18.72874032652463</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>-1250248.920310223</v>
+        <v>18.63039113731038</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>16645.90944603752</v>
+        <v>18.70196937772796</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>320942.5660130457</v>
+        <v>18.72920023596123</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>-723564.3829062758</v>
+        <v>18.67916825915989</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>643243.5457076767</v>
+        <v>18.73708399437929</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>992507.0386251932</v>
+        <v>18.75866706643323</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>421715.6452152088</v>
+        <v>18.74567870398267</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>783524.2660350156</v>
+        <v>18.79763039003152</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>964287.8589818055</v>
+        <v>18.82562100400911</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>-492348.3251022067</v>
+        <v>18.64926447613494</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>504788.3388387994</v>
+        <v>18.77233270491161</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>838208.6181933079</v>
+        <v>18.81799334421143</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>-692732.885097378</v>
+        <v>18.62287696508467</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>-31517.85173908364</v>
+        <v>18.72150391145307</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>218528.7968846934</v>
+        <v>18.75366544434994</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>-944390.810874183</v>
+        <v>18.60660690336777</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>-62868.38912313884</v>
+        <v>18.70787152872121</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>184544.827452268</v>
+        <v>18.74592879017916</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>-605270.5027432397</v>
+        <v>18.67510854825858</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>356216.2530595111</v>
+        <v>18.75702923706155</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>-1504625.758530509</v>
+        <v>18.62713830389214</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>-670518.9267547699</v>
+        <v>18.68362533884475</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>32710.92058305526</v>
+        <v>18.70404572109642</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>-1849980.928027716</v>
+        <v>18.61500917792822</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>-532805.2160790459</v>
+        <v>18.67227807052855</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>113652.4150544885</v>
+        <v>18.69651403415867</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>-1409911.959819518</v>
+        <v>18.65666232795391</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>50497.04677572701</v>
+        <v>18.70297827949547</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>763807.5852389804</v>
+        <v>18.72221214177244</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>-46200.45422768471</v>
+        <v>18.70112235327368</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>283133.081851874</v>
+        <v>18.74176654326604</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>681159.9169585477</v>
+        <v>18.76674980969047</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>-1081287.62666659</v>
+        <v>18.61898046669772</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>-133055.0494711376</v>
+        <v>18.71776259872509</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>555761.9175152935</v>
+        <v>18.75830906085716</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>-906691.2105473264</v>
+        <v>18.60449027152956</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>-240774.4508289712</v>
+        <v>18.68401602105098</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>240389.4057681444</v>
+        <v>18.71261924410505</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>-1380327.514488097</v>
+        <v>18.5799706081585</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>-455847.5119517972</v>
+        <v>18.66130276772152</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26025.56849572379</v>
+        <v>18.69506526540548</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>-1116385.620924015</v>
+        <v>18.63881147750536</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>-77503.69235026752</v>
+        <v>18.70457807247219</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>-130372.2745225874</v>
+        <v>18.70230181147965</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>-295922.9143244781</v>
+        <v>18.66151119261174</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>-120360.3512155925</v>
+        <v>18.72769337076289</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>87814.28753782983</v>
+        <v>18.76747299502722</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>-766005.069215629</v>
+        <v>18.54141756863262</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>-305349.5511789296</v>
+        <v>18.69472619014511</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>21585.94942843199</v>
+        <v>18.75804278684223</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>-687479.7461850871</v>
+        <v>18.58730646211558</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>-174107.2150921949</v>
+        <v>18.68752793728785</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>239543.147207236</v>
+        <v>18.7243884008266</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>-1191028.884801004</v>
+        <v>18.55667675964929</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>-500847.4926184107</v>
+        <v>18.66014605221441</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>-73295.68301823112</v>
+        <v>18.70341730159169</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>-898138.4716559105</v>
+        <v>18.63249808552089</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>-131695.3042801227</v>
+        <v>18.71618642077101</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>328919.1549180755</v>
+        <v>18.75065999309525</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>10338.62965899295</v>
+        <v>18.72093863746058</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>297425.3331099627</v>
+        <v>18.80189874406588</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>600844.6326354222</v>
+        <v>18.84966752091077</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>-612806.9977143588</v>
+        <v>18.59509283322243</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>-18338.92114372441</v>
+        <v>18.77096489074985</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>399772.0743759976</v>
+        <v>18.84374139006647</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>550654.42732236</v>
+        <v>18.78009328235098</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>252005.7882233993</v>
+        <v>18.76008914649125</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>511340.6787217595</v>
+        <v>18.83765785590849</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>634807.2442573754</v>
+        <v>18.87873813343283</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>-295665.2737966852</v>
+        <v>18.63101560934344</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>371110.0283625837</v>
+        <v>18.80660365873652</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>575082.2970146737</v>
+        <v>18.87222844408379</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>-318372.4857618948</v>
+        <v>18.65669097713184</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>334166.8385891551</v>
+        <v>18.77071668210417</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>611442.6040196447</v>
+        <v>18.8088275003161</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>-579883.4617286072</v>
+        <v>18.64227801231156</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>265550.2568476103</v>
+        <v>18.76041435327633</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>549656.9500604591</v>
+        <v>18.80524306357733</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>-109194.5205023187</v>
+        <v>18.72059684182992</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>802479.4768225551</v>
+        <v>18.81619044566011</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>1113852.342217771</v>
+        <v>18.85187369677044</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>652760.292080092</v>
+        <v>18.84873158441746</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>993138.3281323063</v>
+        <v>18.9424815668084</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>1186870.931832345</v>
+        <v>18.99198859336603</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>-7095.290238968842</v>
+        <v>18.71347996335707</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>744983.1658110665</v>
+        <v>18.91381796545759</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>1019818.990819516</v>
+        <v>18.9893905562788</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>632051.2273608446</v>
+        <v>18.78725389974352</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>259774.5718326321</v>
+        <v>18.76998878413727</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>556240.5011334777</v>
+        <v>18.84663744524918</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>708037.4413756557</v>
+        <v>18.88691220794222</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>-343723.7034103244</v>
+        <v>18.64428724002783</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>414541.0180312521</v>
+        <v>18.81709185520806</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>648594.1518740682</v>
+        <v>18.88122166388698</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>-374446.5070437712</v>
+        <v>18.66712707909375</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>358188.8074174682</v>
+        <v>18.77919386729258</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>660621.6591388267</v>
+        <v>18.81642269641929</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>-559398.6608528597</v>
+        <v>18.65712380497098</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>379902.5976469766</v>
+        <v>18.77332835638914</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>691215.7780181128</v>
+        <v>18.81710261007103</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>-40876.20142507151</v>
+        <v>18.73271517132008</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>967520.475781629</v>
+        <v>18.82675380613452</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>1307139.730272958</v>
+        <v>18.86160134689351</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>746989.6997817879</v>
+        <v>18.86182151782386</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>1125736.054851249</v>
+        <v>18.95425393598417</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>1343655.477264038</v>
+        <v>19.00270916419626</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28141.62482980346</v>
+        <v>18.730100008079</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>870022.4620344072</v>
+        <v>18.92706087962538</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>1170850.333358389</v>
+        <v>19.00084185711338</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>447090.944155534</v>
+        <v>18.7314207963909</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>-58901.22881442023</v>
+        <v>18.70212614521019</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>244864.4199717418</v>
+        <v>18.76263450404493</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>560358.0547438804</v>
+        <v>18.79842492187569</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>-747262.9431510724</v>
+        <v>18.59505516243782</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>11577.81349869512</v>
+        <v>18.73420759323514</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>478242.1827206116</v>
+        <v>18.79096115221727</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>-590061.2171947316</v>
+        <v>18.62909544094926</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>209859.5669260469</v>
+        <v>18.71986845787119</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>774223.5132509092</v>
+        <v>18.75289074222015</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>-1011198.551393713</v>
+        <v>18.60832330180538</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>32846.80579656191</v>
+        <v>18.70216191706668</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>619085.449318844</v>
+        <v>18.74090832420803</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>-506146.1164581787</v>
+        <v>18.6739822553311</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>637516.0928385274</v>
+        <v>18.74989143827985</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>1266402.735042609</v>
+        <v>18.78076441740261</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>503266.9938757183</v>
+        <v>18.76281547037382</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>945026.5923453432</v>
+        <v>18.83655311984047</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>1371771.470525205</v>
+        <v>18.87944551927591</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>-387777.549549617</v>
+        <v>18.6505972028684</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>531007.3868680133</v>
+        <v>18.8099662677021</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>1103495.820457783</v>
+        <v>18.87512179897372</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>-1020887.333664531</v>
+        <v>18.63379288226828</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>-368781.249726715</v>
+        <v>18.69615749559891</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>176058.3138732693</v>
+        <v>18.71862429386293</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>-1511343.628990961</v>
+        <v>18.62003368905808</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>-485256.0026947298</v>
+        <v>18.68330122257518</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>6715.581947002789</v>
+        <v>18.70997457546796</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>-1150406.497428435</v>
+        <v>18.66526575327774</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>-11643.52993123347</v>
+        <v>18.71643410862417</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>533960.887464707</v>
+        <v>18.73760309015238</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>-97162.53234243544</v>
+        <v>18.71681018729971</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>187983.0193473362</v>
+        <v>18.76211325144227</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>460583.8432233257</v>
+        <v>18.78947497938177</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>-900386.0995948063</v>
+        <v>18.62639476748686</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>-167952.5477673097</v>
+        <v>18.73550113480265</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>361060.4581038824</v>
+        <v>18.7801014285535</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>-592617.1329361986</v>
+        <v>18.61082833018196</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>-80645.53966975426</v>
+        <v>18.69856303235111</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>274836.1463598698</v>
+        <v>18.72997794231653</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>-1126442.985012718</v>
+        <v>18.58305153482296</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>-417042.173326467</v>
+        <v>18.67282468020963</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>-66848.48167173428</v>
+        <v>18.70991998014227</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>-907344.5791823893</v>
+        <v>18.64715177480427</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>-108024.2321522308</v>
+        <v>18.71974503372738</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>-642892.1525418469</v>
+        <v>18.66766243600639</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>277812.4578372018</v>
+        <v>18.73913277868592</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>611901.3519033201</v>
+        <v>18.76222406022409</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>-877134.7493565547</v>
+        <v>18.66455558034</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>431272.9782817778</v>
+        <v>18.73743315182664</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>717057.2893514003</v>
+        <v>18.76492465821639</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>-277153.0618518406</v>
+        <v>18.71193379844667</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>1129824.189492268</v>
+        <v>18.77090418391355</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>1460386.448864845</v>
+        <v>18.79269595298173</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>708749.308446642</v>
+        <v>18.78690066052723</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>1129297.77884333</v>
+        <v>18.84034863566222</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>1275480.464010143</v>
+        <v>18.86848405297044</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>-210494.2502513954</v>
+        <v>18.68973829160599</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>830137.9901697853</v>
+        <v>18.81497193907021</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>1147311.82214055</v>
+        <v>18.86104484491206</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>-357055.1649515984</v>
+        <v>18.66345436492309</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>326998.6175015367</v>
+        <v>18.76366024454976</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>553533.9199706072</v>
+        <v>18.7960650443641</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>-656897.6717913854</v>
+        <v>18.64967240484491</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>242705.7935522538</v>
+        <v>18.75265121043194</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>462456.5340442263</v>
+        <v>18.79100511148344</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>717143.1077096879</v>
+        <v>18.79977519100288</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>-907493.9149535282</v>
+        <v>18.67100585654483</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>140780.5391680235</v>
+        <v>18.74135022751803</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>512943.7892489155</v>
+        <v>18.76393129896759</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>-995893.1887880542</v>
+        <v>18.67049139555857</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>464585.3433742797</v>
+        <v>18.7423051444038</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>790969.1339500733</v>
+        <v>18.76917485884129</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>-357228.6291085232</v>
+        <v>18.71642571983409</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>1206328.946387071</v>
+        <v>18.77454089580526</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>1579167.128726632</v>
+        <v>18.79584287822531</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>721402.076774648</v>
+        <v>18.79155789021085</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>1204214.333101946</v>
+        <v>18.84444540479232</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>1389097.744214776</v>
+        <v>18.87203883339981</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>-291874.3759908542</v>
+        <v>18.69693202375926</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>891099.3558694421</v>
+        <v>18.82024227815182</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>1248217.473398138</v>
+        <v>18.86526431197163</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>-502626.3770462683</v>
+        <v>18.6695624009729</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>268417.6529181627</v>
+        <v>18.76811593013673</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>523764.3616368239</v>
+        <v>18.79980186324182</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>-715099.7530175305</v>
+        <v>18.65960874995223</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>286669.7986589902</v>
+        <v>18.76099106484421</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>537865.2413879946</v>
+        <v>18.79847575071652</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>-288124.2343697947</v>
+        <v>18.72425926258056</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>795820.7426218082</v>
+        <v>18.80628703352972</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>-1372358.238452599</v>
+        <v>18.65690063839974</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>-304179.0178081377</v>
+        <v>18.71351626859855</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>449766.8095142762</v>
+        <v>18.73366988699039</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>-1596564.448961005</v>
+        <v>18.64885787277017</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>-21243.37596881044</v>
+        <v>18.70640109179138</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>673736.9632906754</v>
+        <v>18.73031196409881</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>-1021939.806074662</v>
+        <v>18.68813724110498</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>701162.6017669546</v>
+        <v>18.73468312802649</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>1465264.080893517</v>
+        <v>18.75366326054391</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>285735.0806152856</v>
+        <v>18.7400107704599</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>778201.2353416129</v>
+        <v>18.78152629765588</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>1196030.167681721</v>
+        <v>18.80615366186519</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>-878965.0935802653</v>
+        <v>18.65939833669304</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>316920.1507175242</v>
+        <v>18.7585069554919</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>1056554.116169892</v>
+        <v>18.79848171750692</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>-686465.8644296129</v>
+        <v>18.64387198154993</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>126189.2625065168</v>
+        <v>18.72342522307562</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>625103.9611313145</v>
+        <v>18.75160320933653</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>-1112906.990986013</v>
+        <v>18.62487009347606</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>-28050.95201327268</v>
+        <v>18.70640124337435</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>470126.5075036814</v>
+        <v>18.73965364079643</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>-737720.2223119631</v>
+        <v>18.68048516726708</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>464704.6032853242</v>
+        <v>18.7464233994335</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>276220.198241285</v>
+        <v>18.74923738703299</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>-80992.74498960108</v>
+        <v>18.71960146387536</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>170494.5464408571</v>
+        <v>18.78689403143536</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>382874.2829448367</v>
+        <v>18.82603766138444</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>-614069.6217741434</v>
+        <v>18.60171780115519</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>-36998.7271062612</v>
+        <v>18.75528954603043</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>304499.1945778824</v>
+        <v>18.81761737990759</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>-650004.4564484891</v>
+        <v>18.62868701741107</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>-47824.96699121638</v>
+        <v>18.72872330363452</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>386980.6108257403</v>
+        <v>18.76500906546259</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>-1098025.665551771</v>
+        <v>18.60419425175901</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>-311221.1281418071</v>
+        <v>18.70764705493784</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>137284.5845152712</v>
+        <v>18.75023539543028</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>-754870.1431898203</v>
+        <v>18.67632319546181</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>110195.0328608086</v>
+        <v>18.76000994436176</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>592749.6313642481</v>
+        <v>18.79394436508658</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>138387.9589855661</v>
+        <v>18.77446710350331</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>489858.2855030675</v>
+        <v>18.85625966900655</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>804630.3553220313</v>
+        <v>18.90321814161279</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>-535544.90181835</v>
+        <v>18.65094493060181</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>153481.750991295</v>
+        <v>18.82662366598501</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>592525.7610054372</v>
+        <v>18.89821239081014</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>964998.5495788308</v>
+        <v>18.83023693842268</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>481363.0072475918</v>
+        <v>18.82202965424852</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>811170.5706258301</v>
+        <v>18.9006590569189</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>931978.5606146872</v>
+        <v>18.94107970670302</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>-126546.1097296443</v>
+        <v>18.69532015229428</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>650103.8597499015</v>
+        <v>18.87097462694744</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>859253.5611456385</v>
+        <v>18.9355753492245</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>-260105.8260937049</v>
+        <v>18.70074393016727</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>476834.3668742235</v>
+        <v>18.81444379302358</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>766691.7501749423</v>
+        <v>18.85196158853861</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>-466008.2808642152</v>
+        <v>18.69264138214016</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>471451.1538586898</v>
+        <v>18.81062093154457</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>767537.7210532854</v>
+        <v>18.85474311694669</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>55763.3332261871</v>
+        <v>18.76698031706132</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>1061215.784771504</v>
+        <v>18.86245892862225</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>1385357.553038038</v>
+        <v>18.8975851659696</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>793255.9652078601</v>
+        <v>18.90513405699108</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>1193611.258996917</v>
+        <v>18.99963942719533</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>1391932.21704334</v>
+        <v>19.0483025669514</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>85096.22182063841</v>
+        <v>18.77236804052059</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>927172.374441858</v>
+        <v>18.97227122648676</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>1213971.664140399</v>
+        <v>19.04661044411595</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>1076195.138644255</v>
+        <v>18.83606244415966</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>506547.9132997096</v>
+        <v>18.83028135353146</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>877348.3403833795</v>
+        <v>18.90793320874906</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>1025654.853550151</v>
+        <v>18.94755609590742</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>-160880.3831980318</v>
+        <v>18.70688115650727</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>713503.5740441445</v>
+        <v>18.87970369808452</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>-307641.3959688846</v>
+        <v>18.71000268987586</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>514225.4648386016</v>
+        <v>18.82172570536714</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>829056.696037085</v>
+        <v>18.85837212326182</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>-432857.074401963</v>
+        <v>18.70606788712657</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>603724.2653479826</v>
+        <v>18.82208992775492</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>926775.4278106033</v>
+        <v>18.86517083709874</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>140187.4176059295</v>
+        <v>18.77778603441354</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>1247694.654335086</v>
+        <v>18.87168834175692</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>1599859.381445243</v>
+        <v>18.90598911131498</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>899518.6990957515</v>
+        <v>18.91659138976046</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>1341500.281436349</v>
+        <v>19.00972893152949</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>1563572.232175289</v>
+        <v>19.05735334344634</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>129494.499729085</v>
+        <v>18.78728976539929</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>1066517.364343187</v>
+        <v>18.98377912042729</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>1379065.325395647</v>
+        <v>19.0563506803758</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>1006802.831525477</v>
+        <v>18.77286513964279</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>240189.9408161056</v>
+        <v>18.75341857608034</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>644596.3703257227</v>
+        <v>18.81488071460702</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>964324.202595848</v>
+        <v>18.85009321917068</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>-532495.3059085369</v>
+        <v>18.64831640947826</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>381241.9406185196</v>
+        <v>18.78764521017366</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>865285.7170814096</v>
+        <v>18.84350620789205</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>-525871.6976162108</v>
+        <v>18.66556979321665</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>392319.5360176406</v>
+        <v>18.75614428966051</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>982926.2759074871</v>
+        <v>18.78864819950564</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>-871454.637792804</v>
+        <v>18.65014231265285</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>301256.52026778</v>
+        <v>18.74392886276032</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>913439.8002061254</v>
+        <v>18.78205990252671</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>-297933.6710084751</v>
+        <v>18.71253708136822</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>977003.7914025295</v>
+        <v>18.7884143773653</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>1633091.117678725</v>
+        <v>18.81880136004992</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>684447.5869224892</v>
+        <v>18.80985250673833</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>1211524.220436714</v>
+        <v>18.88429481876351</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>1652015.897414894</v>
+        <v>18.9264542768897</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>-274399.4805017005</v>
+        <v>18.69970487450544</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>770319.0021870141</v>
+        <v>18.85884108699032</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>1368737.919113906</v>
+        <v>18.9229272676598</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>-735124.481412076</v>
+        <v>18.56563061035233</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>-504943.3320746392</v>
+        <v>18.65597483539417</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>-318232.3245881669</v>
+        <v>18.68731563673508</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>-909727.7555024087</v>
+        <v>18.53969690600273</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>-519116.3028142296</v>
+        <v>18.63098094618125</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>-364441.8684560701</v>
+        <v>18.6683652674884</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>-812209.5898700405</v>
+        <v>18.60970898594876</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>-374678.6672703355</v>
+        <v>18.68353148965869</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>-197358.8401532413</v>
+        <v>18.71313203875106</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>-239818.6490746177</v>
+        <v>18.67638046679875</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>-153243.8755019992</v>
+        <v>18.73978146335215</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>-68159.92653630159</v>
+        <v>18.77775839777675</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>-546557.1807204266</v>
+        <v>18.54086222308346</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>-280852.6337120532</v>
+        <v>18.69867467087713</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>-112307.2616775683</v>
+        <v>18.76145014807681</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>-259836.3528334776</v>
+        <v>18.53965622314145</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>-44251.50894989139</v>
+        <v>18.66745492262015</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>73395.83175503201</v>
+        <v>18.71145359358332</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>-488726.7525921806</v>
+        <v>18.49239886811181</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>-185574.8508891586</v>
+        <v>18.62276560448625</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>-76317.60185184387</v>
+        <v>18.67493205354928</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>-373851.9163174964</v>
+        <v>18.59047567925515</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>-32641.57518935357</v>
+        <v>18.69588891876056</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>-612783.9387052978</v>
+        <v>18.60556820782523</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>-271169.8415004358</v>
+        <v>18.70934197631311</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>-154866.4776381756</v>
+        <v>18.74145626019627</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>-677617.374769537</v>
+        <v>18.59453503059122</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>-169822.1371242962</v>
+        <v>18.69997394311017</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>-81734.80380932757</v>
+        <v>18.73840445989603</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>-487881.1644695841</v>
+        <v>18.66845514425818</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>60605.047201774</v>
+        <v>18.75377042148014</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>167886.1073097314</v>
+        <v>18.78415634176783</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>66384.83107133149</v>
+        <v>18.76751114431056</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>208607.1569973269</v>
+        <v>18.84280766068632</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>257743.5990105071</v>
+        <v>18.88174520072045</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>-289485.0908311821</v>
+        <v>18.62193839194101</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>104449.7691532086</v>
+        <v>18.80352014202179</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>204703.0118774684</v>
+        <v>18.86821787149889</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>-190463.6412587521</v>
+        <v>18.60603092097734</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>93824.97023870617</v>
+        <v>18.75227072621473</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>169112.4830977467</v>
+        <v>18.79753843943029</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>-314975.0072010591</v>
+        <v>18.57847892597204</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>64305.30030140004</v>
+        <v>18.72835230891966</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>131743.2950559308</v>
+        <v>18.78216738129248</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>-134523.4049058052</v>
+        <v>18.68141346416418</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>277823.1696370722</v>
+        <v>18.80266061143435</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>-769892.8660153139</v>
+        <v>18.60977095623867</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>-378567.2585958363</v>
+        <v>18.71195552759761</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>-244272.081637913</v>
+        <v>18.7433781088869</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>-770767.6878532945</v>
+        <v>18.60262722410705</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>-202991.6569179218</v>
+        <v>18.70658263307339</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>-96049.96925646691</v>
+        <v>18.74416273752778</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>-573005.0638322261</v>
+        <v>18.67443196515245</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>37252.68690222106</v>
+        <v>18.75855547940085</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>164171.5875947803</v>
+        <v>18.78827408379074</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>38367.49509360093</v>
+        <v>18.77362310749992</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>203570.3551968581</v>
+        <v>18.84822019983524</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>271265.2849389042</v>
+        <v>18.88644222429054</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>-354364.1080603141</v>
+        <v>18.63186214215239</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>95474.73293768341</v>
+        <v>18.81073989436363</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>214313.0382708624</v>
+        <v>18.87399032601952</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>-272146.5079104367</v>
+        <v>18.61357788966694</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>47360.10576587399</v>
+        <v>18.75745868429539</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>135955.7071508389</v>
+        <v>18.80174551691895</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>-358460.3626427647</v>
+        <v>18.59173308793905</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>62505.36733132403</v>
+        <v>18.73934602677811</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>144240.6990531058</v>
+        <v>18.79196619126364</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>-167591.8767475429</v>
+        <v>18.69154854674542</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>287837.4696353562</v>
+        <v>18.81097872831529</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>-1036917.165352376</v>
+        <v>18.6018419186125</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>-648273.3304001846</v>
+        <v>18.6839183162021</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>-381472.1514951104</v>
+        <v>18.71205082497017</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>-1085568.735085879</v>
+        <v>18.58487103807555</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>-479669.6693992499</v>
+        <v>18.66796973692372</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>-250292.4846402044</v>
+        <v>18.7015017709083</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-926032.3123748902</v>
+        <v>18.64585653981596</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>-258738.5630380521</v>
+        <v>18.71307045851602</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>-74.84785083697676</v>
+        <v>18.73962658640135</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>-184345.596705374</v>
+        <v>18.71365958393924</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>-23462.01650674512</v>
+        <v>18.77188352599811</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>118168.8369655538</v>
+        <v>18.80610134544146</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>-631282.6446853866</v>
+        <v>18.59284704485873</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>-186610.7658829072</v>
+        <v>18.73631126708698</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>59323.25501189813</v>
+        <v>18.79260594007724</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>-336511.7239777297</v>
+        <v>18.58919897202469</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>3634.106934234017</v>
+        <v>18.70514919836435</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>175257.9895539733</v>
+        <v>18.74463848056294</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>-516826.0656490725</v>
+        <v>18.55547217013508</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>-56357.36359214205</v>
+        <v>18.67395342575932</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>107022.192730283</v>
+        <v>18.72074119337955</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>-335790.6958318313</v>
+        <v>18.64078954889271</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>174330.7659885272</v>
+        <v>18.73660722944902</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>91109.18093741874</v>
+        <v>18.73727689429829</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>-16887.42122638648</v>
+        <v>18.6903489484388</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>85638.38687618249</v>
+        <v>18.78582589278259</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>149862.8194197204</v>
+        <v>18.84041754376933</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>-241018.2181471053</v>
+        <v>18.51371371207308</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>3867.537997739423</v>
+        <v>18.73715409176719</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>108665.8863445283</v>
+        <v>18.82517964799293</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>-233842.2685897448</v>
+        <v>18.58274885166565</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>46695.58598265394</v>
+        <v>18.72934515007892</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>192584.0393942907</v>
+        <v>18.78047377389105</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>-461914.4367516932</v>
+        <v>18.54111271063156</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>-96474.32984970948</v>
+        <v>18.69238689461253</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>48821.56747732121</v>
+        <v>18.75259623905142</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>-272358.0080244517</v>
+        <v>18.6506608932258</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>126281.4923179761</v>
+        <v>18.77303068289952</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>286106.6667741656</v>
+        <v>18.82092059752797</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>105465.8891598063</v>
+        <v>18.79336463137259</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>265545.9044453236</v>
+        <v>18.91095102989109</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>370965.7891802365</v>
+        <v>18.97699631574005</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>-187003.9833537725</v>
+        <v>18.60828644920599</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>134396.813608371</v>
+        <v>18.86552788435991</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>274241.4586376028</v>
+        <v>18.96713961968752</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>357434.2020394119</v>
+        <v>18.84530596167104</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>196030.4939742619</v>
+        <v>18.82780945535987</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>328787.9601242067</v>
+        <v>18.93991492038939</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>366167.4407564623</v>
+        <v>18.99615339849289</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>-58804.96363525518</v>
+        <v>18.63802781336829</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>266428.1073276792</v>
+        <v>18.89410487052341</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>329078.0783652993</v>
+        <v>18.98516041874792</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>-100718.9144170611</v>
+        <v>18.67955676064217</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>-218023.2084572599</v>
+        <v>18.6612804595749</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>203447.168886038</v>
+        <v>18.83407366972963</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>296749.9249980454</v>
+        <v>18.89633134118879</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>36514.73689979305</v>
+        <v>18.77491963022431</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>486582.6616379966</v>
+        <v>18.91475852824844</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>592031.4888045134</v>
+        <v>18.96422863653891</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>356936.4331006386</v>
+        <v>18.97482527098343</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>532866.9961690779</v>
+        <v>19.11113404444055</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>599845.0152206654</v>
+        <v>19.1794497971006</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>52278.89041938131</v>
+        <v>18.77597754999654</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>430955.467789764</v>
+        <v>19.06911877103056</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>519420.838272743</v>
+        <v>19.17445705397728</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>382257.2952149973</v>
+        <v>18.85268374296018</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>192840.0029592825</v>
+        <v>18.83833354181832</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>341511.5861788365</v>
+        <v>18.94914362830552</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>391837.800655721</v>
+        <v>19.00431649805881</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>-86290.78938420485</v>
+        <v>18.65352322369352</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>278723.3745490207</v>
+        <v>18.90556835899375</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>354851.442969427</v>
+        <v>18.99457891585502</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>-135985.0961861824</v>
+        <v>18.69134885356269</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>230253.140955836</v>
+        <v>18.85534755088945</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>337196.9176370118</v>
+        <v>18.90689126149555</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>-218294.5233751668</v>
+        <v>18.67927054846831</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>245203.2480336783</v>
+        <v>18.84925150160228</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>350192.4962121241</v>
+        <v>18.91006117682376</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>56678.10683221542</v>
+        <v>18.789086651478</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>549968.389406353</v>
+        <v>18.9266616661291</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>667595.5145263866</v>
+        <v>18.97498684131341</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>392543.6090773097</v>
+        <v>18.98955066391938</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>585574.0938771035</v>
+        <v>19.12396968976406</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>663395.7082490822</v>
+        <v>19.1908655407037</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>62125.62969453248</v>
+        <v>18.79590749239447</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>481029.7115672563</v>
+        <v>19.08412680499625</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>580666.6018677573</v>
+        <v>19.18699225285446</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>356476.3254920676</v>
+        <v>18.77373537158429</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>99963.09184436279</v>
+        <v>18.74167530323207</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>264022.3870646399</v>
+        <v>18.82901338094883</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>368802.5651058905</v>
+        <v>18.87816861462642</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>-223923.707208076</v>
+        <v>18.58420809534003</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>161303.9314126417</v>
+        <v>18.78705349067891</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>317708.3505722834</v>
+        <v>18.86598469904016</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>-191127.7699727806</v>
+        <v>18.63630788369936</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>229513.0412577128</v>
+        <v>18.76909892138824</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>432141.3117453033</v>
+        <v>18.81491922562697</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>-380848.5627763994</v>
+        <v>18.60856854340886</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>156289.9965476563</v>
+        <v>18.74578000305208</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>359779.7121240798</v>
+        <v>18.79970970864386</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>-84370.40897536653</v>
+        <v>18.70354321113144</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>496050.2285740201</v>
+        <v>18.81455249907178</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>718318.4750928722</v>
+        <v>18.85745425578584</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>338281.6818044679</v>
+        <v>18.84483506983761</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>574772.8189467444</v>
+        <v>18.95196563088455</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>727142.5728506886</v>
+        <v>19.01130110852297</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>-76431.81678619162</v>
+        <v>18.67981419265969</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>403200.4705774983</v>
+        <v>18.91294364706204</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>599023.1254951919</v>
+        <v>19.00393948958683</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.603</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.66</v>
+        <v>16.246</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.64</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.888</v>
+        <v>18.501</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.97</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.422</v>
+        <v>6.953</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>14.93137070130566</v>
+        <v>13.88819760700381</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.13079375973954</v>
+        <v>16.59130430242756</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>29.51968136073498</v>
+        <v>28.40105377078367</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.5190465059134439</v>
+        <v>1.056596006435438</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>14.85072584753122</v>
+        <v>15.46187880494818</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.42053746676329</v>
+        <v>20.36090891505938</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>7.44355167194006</v>
+        <v>5.569503573131087</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.84193669683462</v>
+        <v>27.49467278525024</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>35.30983148307394</v>
+        <v>34.33147315396942</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.90134344627584</v>
+        <v>15.02949344903757</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>18.55011368107462</v>
+        <v>19.697274953255</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>18.68857890870786</v>
+        <v>22.35741119830701</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.42880752259527</v>
+        <v>12.00505620819292</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>13.20033304472065</v>
+        <v>15.65696198776245</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.54456578435099</v>
+        <v>31.33848890993752</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>12.27419199290455</v>
+        <v>13.53606732361729</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>24.4071771699318</v>
+        <v>25.25488381615206</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>33.83536601596224</v>
+        <v>32.32702333385609</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.695424233734101</v>
+        <v>0.8694525186007596</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.151552581419832</v>
+        <v>7.602266527800001</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.8117297698257</v>
+        <v>13.25380358781267</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1.065732492312847</v>
+        <v>-0.9027356303124563</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.55177736048857</v>
+        <v>14.86137249608121</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.39361769381703</v>
+        <v>16.39427151837261</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>27.7596787160765</v>
+        <v>28.57971006186203</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>30.08972483774721</v>
+        <v>33.67678611507265</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>0.3068263533939231</v>
+        <v>1.13487360251067</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>30.0393037402485</v>
+        <v>32.15566024585223</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>30.20582990364889</v>
+        <v>32.02970895241288</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6.409920691670436</v>
+        <v>8.328081501530523</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>44.77944680181624</v>
+        <v>49.21460609905543</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>45.28253905275615</v>
+        <v>50.26749897511087</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.68140401460502</v>
+        <v>46.13557926200575</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>53.73956777812157</v>
+        <v>54.34595712515552</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>54.42772993867598</v>
+        <v>57.90763876608236</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.24066955976905</v>
+        <v>25.24887907501804</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>48.70274213183612</v>
+        <v>44.9228804950568</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>53.92406621401418</v>
+        <v>54.24515702021631</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>14.34849644636536</v>
+        <v>15.49401381824379</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.8503090575653</v>
+        <v>32.59974201092952</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.16622516019881</v>
+        <v>36.35292829618363</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.353368598368803</v>
+        <v>1.790976193624157</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.89416233624385</v>
+        <v>25.19823182885298</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.21066537464191</v>
+        <v>33.40856087165531</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>3.748900454983534</v>
+        <v>4.24067082111646</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>42.84020654942211</v>
+        <v>41.22441010986439</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>9.973043250936573</v>
+        <v>11.50968294581073</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>23.71266518058327</v>
+        <v>25.56802679533079</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.5743087504383</v>
+        <v>30.93834312583222</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-0.4165233082261182</v>
+        <v>0.2121214262498938</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>29.74827193912925</v>
+        <v>33.3057368582268</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>33.30371734091068</v>
+        <v>34.31134051291122</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>7.928972631164012</v>
+        <v>8.851616105919312</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>47.84118325875662</v>
+        <v>51.96939863097018</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>51.88568402966995</v>
+        <v>54.05349770710387</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>49.85795191121846</v>
+        <v>48.25075541398287</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>54.43683121434621</v>
+        <v>55.67795179392738</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>58.19662387948554</v>
+        <v>60.77361659132223</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>17.27068649935169</v>
+        <v>19.85401296964417</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>44.11148746585374</v>
+        <v>43.10115017624511</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52.31186511406796</v>
+        <v>52.9330700067707</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.22628283481203</v>
+        <v>13.11064356118391</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.09507876362794</v>
+        <v>31.38199545567879</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.83286164539845</v>
+        <v>35.84255584403448</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>0.8534923770042084</v>
+        <v>1.298838898597406</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>23.1661608063387</v>
+        <v>25.22823603533263</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.59314896158185</v>
+        <v>36.85641382092698</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>6.152314163665544</v>
+        <v>5.550884728074529</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.79364295538038</v>
+        <v>44.08476309640201</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.836177556645442</v>
+        <v>5.214888737440432</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>15.14330106044873</v>
+        <v>14.95743858462385</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>23.86105261461429</v>
+        <v>25.64378757463329</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.14655132033581</v>
+        <v>-0.07516403902874202</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.99501440325454</v>
+        <v>26.45413863563255</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.05061815907972</v>
+        <v>33.81254077168931</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>1.976149698468241</v>
+        <v>3.520200285360758</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>40.10963202957057</v>
+        <v>39.57288213606132</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>47.61837346721344</v>
+        <v>48.51604906942763</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>30.73718433749383</v>
+        <v>31.73790268204896</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>36.7900202740265</v>
+        <v>38.32225811842436</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>41.00525646544196</v>
+        <v>43.99503693852559</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>7.719774033935794</v>
+        <v>10.66826990297642</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>30.06832431582983</v>
+        <v>29.316978551315</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>44.1411933173755</v>
+        <v>49.2230776927683</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.221536851993605</v>
+        <v>6.97994933271384</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.88996484263031</v>
+        <v>26.28349838182735</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.9489048409026</v>
+        <v>35.29254222533976</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>0.3497574348708845</v>
+        <v>1.594265055916477</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>23.43029207865278</v>
+        <v>21.66738415765773</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>38.60811516984961</v>
+        <v>36.81083585096976</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.938293430936877</v>
+        <v>1.907825361826628</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>37.64397428401144</v>
+        <v>34.2231938006899</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.40210856850681</v>
+        <v>22.17079127779496</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>16.75396947755563</v>
+        <v>15.41728895391537</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.65047606236287</v>
+        <v>29.22065515544989</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>33.69462648654287</v>
+        <v>34.69409813086986</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.343160488178416</v>
+        <v>3.710273931576484</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>11.21947070637264</v>
+        <v>14.40620963754752</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>20.21197406433867</v>
+        <v>22.73995478741097</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>10.37283749165912</v>
+        <v>11.3396789318069</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>19.9297992405948</v>
+        <v>20.82526392108514</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>33.06908266148778</v>
+        <v>32.88983705404728</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>0.6586401630729952</v>
+        <v>-0.4029028424060215</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>5.226485141138234</v>
+        <v>7.16202372536198</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>10.47719755255645</v>
+        <v>15.47226440117523</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-0.5375751610967789</v>
+        <v>-0.4989558915377081</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>15.48400310019399</v>
+        <v>19.00050719068194</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>30.24859712318557</v>
+        <v>33.5287421719792</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>18.52633313961134</v>
+        <v>20.9313294317422</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>40.18978194803704</v>
+        <v>41.81370943997298</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>39.57683469045961</v>
+        <v>50.41169107750081</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>2.57994620499905</v>
+        <v>3.462389154698315</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>12.29678797671924</v>
+        <v>16.64769442293942</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>22.20395373125414</v>
+        <v>34.23079137859408</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>52.56011082744718</v>
+        <v>50.31525180779164</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>49.29140756001938</v>
+        <v>44.62361570273183</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>59.46506263150361</v>
+        <v>56.06282549963223</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>60.41825241333155</v>
+        <v>58.75269074695289</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>19.88985181642257</v>
+        <v>18.05188084318829</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>55.19042041831522</v>
+        <v>51.41800945065916</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>60.52389129900089</v>
+        <v>56.61109880308897</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>19.26978982704638</v>
+        <v>18.88750127742901</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.25583723682787</v>
+        <v>37.26776971839571</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.23448412773656</v>
+        <v>44.29381076464329</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>2.951851187466584</v>
+        <v>3.048633774743529</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>39.05931093409295</v>
+        <v>36.84891957607167</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>42.04982130359959</v>
+        <v>41.94317128582799</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>6.814994822287254</v>
+        <v>8.765023566565535</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>61.49106408717088</v>
+        <v>59.45554172838531</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.83021345606997</v>
+        <v>65.64128139594138</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>78.88598360413266</v>
+        <v>75.06389200094397</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>83.22184201639521</v>
+        <v>81.40988228121802</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>84.6262765716032</v>
+        <v>85.6393461494538</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>33.16895974526187</v>
+        <v>30.22590429603896</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>73.47086820365632</v>
+        <v>70.65239508509285</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>78.46693886048608</v>
+        <v>78.43314760314438</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>59.90681950110753</v>
+        <v>56.07491650416868</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>43.12637813714223</v>
+        <v>42.96277077636835</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.46063732665365</v>
+        <v>51.56108633919004</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>60.39195359602964</v>
+        <v>58.18738363579907</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>13.35226473511374</v>
+        <v>15.30614506447337</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>53.68575591219799</v>
+        <v>52.09897019552958</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>61.0329654501646</v>
+        <v>58.82482659270967</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>14.03882895104044</v>
+        <v>15.46474180815179</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>35.43973922259569</v>
+        <v>36.40579981198795</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>43.80337754212627</v>
+        <v>44.14816317976432</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>1.46995536295654</v>
+        <v>2.00920107164475</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>37.3193746147197</v>
+        <v>38.81608043014593</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.00057934035515</v>
+        <v>46.20951667348579</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>7.230271345850834</v>
+        <v>8.872280272919802</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>64.32222570533074</v>
+        <v>63.58331700506771</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>72.8283537324273</v>
+        <v>71.22850148621313</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>80.41459030195858</v>
+        <v>78.17536283374884</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>82.21734893243197</v>
+        <v>81.6621177845166</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>89.85066013540538</v>
+        <v>88.95072253077836</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>21.93619392032836</v>
+        <v>27.49350669688448</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>70.42477616821864</v>
+        <v>72.71600422347709</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.84826900937361</v>
+        <v>83.27568880656848</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>57.0978666875924</v>
+        <v>50.67876937250732</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>24.05127132651807</v>
+        <v>22.99415144544817</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>31.78105285389244</v>
+        <v>32.73826205163052</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>45.33105725429483</v>
+        <v>44.5027060407521</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>5.403838513859718</v>
+        <v>8.296515630148008</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>48.60504190016712</v>
+        <v>42.42772555639327</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>60.40488290286677</v>
+        <v>55.01989459640085</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>8.982909919242339</v>
+        <v>10.01472428802277</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>33.10855807880009</v>
+        <v>32.94754150738873</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>46.38404156337187</v>
+        <v>45.51390036091858</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.889930675414803</v>
+        <v>1.776860915051074</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>34.75819303471741</v>
+        <v>33.79304894885134</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>48.43539062950664</v>
+        <v>47.38838814117908</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>2.575629576149048</v>
+        <v>3.768726979792799</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>52.49585645092838</v>
+        <v>49.69152467590412</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>71.75653006860196</v>
+        <v>68.27944711984465</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>58.61729274545873</v>
+        <v>51.03773061241762</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>70.11567114344413</v>
+        <v>66.54417881196267</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>87.57977046541208</v>
+        <v>84.27581255214966</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>6.226583690159607</v>
+        <v>9.577509273856814</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>50.56906004365514</v>
+        <v>49.31487277879428</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>78.03050781526952</v>
+        <v>73.57822040549435</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>13.10028097406471</v>
+        <v>11.25407881170478</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>15.65983128314846</v>
+        <v>17.30168486458331</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.53588302757024</v>
+        <v>27.08475551420236</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>0.1792901931955164</v>
+        <v>-0.6849282148307552</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>23.69834201771731</v>
+        <v>19.69336087477285</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.1574508961512</v>
+        <v>23.82765783795679</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>8.500900933576398</v>
+        <v>7.854969093000147</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>40.11024219604109</v>
+        <v>32.51016148297395</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>44.27267919111433</v>
+        <v>38.50618026997495</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>19.37821615678912</v>
+        <v>23.11195174098755</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.34314633254568</v>
+        <v>30.91564490221531</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>29.17494702727577</v>
+        <v>31.55946679157087</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.83749276406022</v>
+        <v>13.03582645209473</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>17.68740187483454</v>
+        <v>19.589830319517</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>43.5283020752445</v>
+        <v>33.20933242937173</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.76593238571605</v>
+        <v>11.50995284969253</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.07693503278163</v>
+        <v>25.66424623863591</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>31.09497548888038</v>
+        <v>30.9657431602985</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-4.581488473601155</v>
+        <v>-3.145757581172422</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>9.517312254433204</v>
+        <v>11.21646995712231</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.39438384993237</v>
+        <v>15.24129223819547</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>-0.9478100791916972</v>
+        <v>1.268009921766989</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.78992844178928</v>
+        <v>27.02141532352131</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>13.64437027295616</v>
+        <v>11.32135286458697</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>20.62126819491356</v>
+        <v>21.32600971159365</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.45331780614287</v>
+        <v>29.22784373652266</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-1.246645083131423</v>
+        <v>-0.253983630961276</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>33.15777026774525</v>
+        <v>30.7188446242599</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.44553080259043</v>
+        <v>33.52796831145004</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>6.521959344069337</v>
+        <v>10.27426990606375</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>49.20256337078305</v>
+        <v>46.19067073202947</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>51.07562523560848</v>
+        <v>50.28963018629496</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>46.96624187888978</v>
+        <v>44.58251331511073</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>53.76908929498779</v>
+        <v>54.35788695430882</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>54.96018488704549</v>
+        <v>56.37628682921266</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>20.52776920646613</v>
+        <v>18.59471491842048</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>41.19238570976484</v>
+        <v>37.83005648390358</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>54.54806596477763</v>
+        <v>47.96853667006863</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>14.21832617578663</v>
+        <v>12.39943585019854</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>33.30782424821243</v>
+        <v>32.79027210511207</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.70405439935941</v>
+        <v>37.32926531328251</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-2.613152453977005</v>
+        <v>-1.364188896127938</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>33.2279153886048</v>
+        <v>32.2268985773822</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>37.57005914575946</v>
+        <v>37.31169113898377</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>2.374353384197072</v>
+        <v>6.681900223999847</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>54.13653624781195</v>
+        <v>51.83141223494972</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>5.02888339070936</v>
+        <v>6.371984362790922</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>14.94383993549671</v>
+        <v>17.09605392618455</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.95078830459268</v>
+        <v>25.68493175211747</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-2.706492291039325</v>
+        <v>-0.7478784757720938</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>31.52804183159765</v>
+        <v>29.97657896585839</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>34.16277979924864</v>
+        <v>33.95354343045199</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>6.005920675385799</v>
+        <v>10.4605292585083</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>48.9330201146437</v>
+        <v>46.31281677079964</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>54.06709336749655</v>
+        <v>51.68108958525156</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>52.44691406166299</v>
+        <v>46.01089588422282</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>56.12569587469513</v>
+        <v>54.02155657957877</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>62.7777043536115</v>
+        <v>58.89739642248566</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>10.60923585363913</v>
+        <v>14.52979731216854</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.06503035059951</v>
+        <v>34.54952558262467</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>47.49169358462667</v>
+        <v>45.3957525291796</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.476377461237266</v>
+        <v>8.991852598780923</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.68051730152328</v>
+        <v>30.11938879019453</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.96320723419139</v>
+        <v>35.77025777520504</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-3.884181961593093</v>
+        <v>-2.440679089392347</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.21381569490541</v>
+        <v>29.93361934769013</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.84617208922312</v>
+        <v>38.76792669805637</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>1.857693141353778</v>
+        <v>6.098567615074387</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.54623076767812</v>
+        <v>50.45803218233493</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>1.704694807664168</v>
+        <v>3.15689248978228</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>10.64835324775199</v>
+        <v>12.9441359148117</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.01857458686185</v>
+        <v>25.09613737248562</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-3.125412704012433</v>
+        <v>-0.9607329836669543</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>30.87279603978325</v>
+        <v>26.11884742571062</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>36.95251387461614</v>
+        <v>34.74478581849516</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>0.3642432388668553</v>
+        <v>7.162376238614144</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>44.54041595211009</v>
+        <v>39.23340207449731</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>53.91895368008808</v>
+        <v>50.12064010858384</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>44.07299494632333</v>
+        <v>35.76403535112119</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>50.58423539733106</v>
+        <v>43.06481721480593</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>58.92570130794868</v>
+        <v>49.18391788693374</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>6.175939441303424</v>
+        <v>10.5916595396232</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.28992085179164</v>
+        <v>28.00711703409083</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>51.84209317965424</v>
+        <v>45.10362665184099</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.704979219815883</v>
+        <v>5.613172841161269</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.37019230425156</v>
+        <v>26.32336957479543</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.71223462432967</v>
+        <v>33.56812347726709</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-3.944217931732805</v>
+        <v>-2.495741737028965</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.45038309541516</v>
+        <v>22.81246095300369</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>33.24142740327849</v>
+        <v>34.05588161045988</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>-1.357165533733863</v>
+        <v>3.081719237033571</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>40.25576364172134</v>
+        <v>39.97481630273694</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>32.93295893360481</v>
+        <v>33.45015902804778</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>22.25909777768332</v>
+        <v>23.35721909423653</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>40.54194717745179</v>
+        <v>38.12609053047672</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>40.74950530634618</v>
+        <v>40.28553171606949</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>8.749342126078112</v>
+        <v>7.86805706941324</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>19.3785045018069</v>
+        <v>22.52384792042009</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>29.14286034050869</v>
+        <v>31.40048738059577</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.51430671671122</v>
+        <v>10.96378186534509</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.32944816657565</v>
+        <v>25.28093864978541</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>39.93086427881565</v>
+        <v>38.44318018500923</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-5.097335347781495</v>
+        <v>-3.960963522629172</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>9.619583686309667</v>
+        <v>12.32420483626213</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>19.85664939433456</v>
+        <v>21.18162050161172</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>-0.008043357484183389</v>
+        <v>0.897028101934005</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>31.2136202700943</v>
+        <v>29.48352602350449</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>50.41330717551784</v>
+        <v>45.9404717653437</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>27.89924213379924</v>
+        <v>29.63817370499682</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>46.4375421095021</v>
+        <v>47.94030073698831</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>56.41894621661206</v>
+        <v>57.12377498501888</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>5.913894918279876</v>
+        <v>6.027267022344777</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>27.14290599007069</v>
+        <v>29.32055084534916</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>42.95162034104388</v>
+        <v>43.56438381791271</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>61.63771694266297</v>
+        <v>60.34527190469102</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>56.72963864470574</v>
+        <v>52.89901118988163</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>64.54604246868695</v>
+        <v>62.40489099144647</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>65.08762703340119</v>
+        <v>64.26358364708113</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>21.9463262802382</v>
+        <v>17.99271557270773</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>59.48590085237237</v>
+        <v>57.62531424393593</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>63.57613848547049</v>
+        <v>62.4324671788722</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>19.26223416885611</v>
+        <v>16.87658815142393</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.99973866300945</v>
+        <v>38.5313835866021</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.77149928904224</v>
+        <v>47.46472030038393</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-1.104297426456753</v>
+        <v>-0.06050281787873857</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>45.68861178341999</v>
+        <v>42.75686134746132</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>47.76523679996255</v>
+        <v>47.33001256472643</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>6.668120184722543</v>
+        <v>11.04782086533451</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>69.38217590551469</v>
+        <v>65.22401182992078</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>76.16204067838797</v>
+        <v>75.19441996925786</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>78.66040326437866</v>
+        <v>74.56176577415111</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>82.01608890341456</v>
+        <v>84.36606252551215</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>89.59027161461697</v>
+        <v>91.11901914872574</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.59394543712832</v>
+        <v>27.12565154008469</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>80.96799502872767</v>
+        <v>77.46736549560745</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>83.5976074589542</v>
+        <v>83.88026431863216</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>64.5616680673416</v>
+        <v>62.63404384594959</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>50.41887712079161</v>
+        <v>50.46705986475186</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>55.08827212961098</v>
+        <v>57.13283501179733</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>63.23840719845212</v>
+        <v>63.01765998604064</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>12.45667802092395</v>
+        <v>13.50695483868773</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>53.55199191382812</v>
+        <v>54.26337963161909</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>60.43983352399808</v>
+        <v>61.54220642304258</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.58710386673001</v>
+        <v>12.39622847584226</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.00365329077452</v>
+        <v>36.08167673047918</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>46.01805632175337</v>
+        <v>45.78400006333704</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-4.131934955803487</v>
+        <v>-2.261561073614441</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.57245483346679</v>
+        <v>42.68254433576464</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>47.82162790037451</v>
+        <v>49.0751851921802</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>4.966840854592867</v>
+        <v>9.281268120745455</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>68.11359044364403</v>
+        <v>65.95847337440094</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>78.63819146460106</v>
+        <v>77.43963209491216</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>77.51834516745805</v>
+        <v>75.88505197707687</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>81.90707754420481</v>
+        <v>84.47827566606534</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>92.52902511021657</v>
+        <v>93.36112476453846</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>15.39192414362461</v>
+        <v>22.79445095771784</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>78.50286428157551</v>
+        <v>77.87114283335296</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>84.97316526208704</v>
+        <v>85.93142894641011</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>55.59213537061319</v>
+        <v>54.61546204496894</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.31968735037363</v>
+        <v>28.41001013036127</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>35.36668819886585</v>
+        <v>37.94270214333565</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.86935991659124</v>
+        <v>45.34741910449993</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>6.59712472575848</v>
+        <v>7.357229653125831</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>43.2294566071239</v>
+        <v>39.32602055565604</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>51.69946920748234</v>
+        <v>50.42978026935323</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>6.837188030727589</v>
+        <v>7.45000624995269</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>34.72225963996559</v>
+        <v>33.28503066979242</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.936454082807</v>
+        <v>46.95357567242702</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-4.295059950807037</v>
+        <v>-1.893906742182985</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>39.83959649905677</v>
+        <v>37.14117810949392</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>46.68498889955649</v>
+        <v>48.37813641459671</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>0.2740813866417682</v>
+        <v>5.581773980999355</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>62.16210865500918</v>
+        <v>56.72644538854378</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>77.34382136171632</v>
+        <v>74.80993846615313</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>65.18398387373598</v>
+        <v>57.40749441125747</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>78.38644834090961</v>
+        <v>73.82442790764213</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>91.01610714297743</v>
+        <v>88.02190463529712</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>7.201235995534795</v>
+        <v>11.38365210517627</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>73.5817987027965</v>
+        <v>62.77789712087683</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>85.30092771126255</v>
+        <v>78.58724904278567</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>9.458909852201932</v>
+        <v>8.246861136382776</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>12.07605224772887</v>
+        <v>13.34025406471977</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.23534344005087</v>
+        <v>22.70670089333798</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-1.44456752120708</v>
+        <v>-2.467779668001089</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.30445277923245</v>
+        <v>14.07869242803926</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>16.3832335449228</v>
+        <v>17.79702534098049</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.311271333850446</v>
+        <v>4.195786490715843</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>29.27150963583166</v>
+        <v>25.94066841464682</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>33.17828071917046</v>
+        <v>31.58539446759495</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>15.23239865180996</v>
+        <v>18.41317486701715</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>23.8471289703262</v>
+        <v>25.75027003555887</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>24.42093687744664</v>
+        <v>26.53018806822658</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>11.85589271197221</v>
+        <v>8.350666819729931</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>12.06506603031566</v>
+        <v>13.98415395447637</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.98469748778999</v>
+        <v>25.59952363409583</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.4229466998362</v>
+        <v>12.03453466604308</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.18227322522559</v>
+        <v>27.04947277593838</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>34.07685755535265</v>
+        <v>32.52205801000098</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-3.319461107992385</v>
+        <v>-2.925622453473377</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>10.71546693869663</v>
+        <v>12.6274957120484</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>17.46717272027971</v>
+        <v>16.91245255161891</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>0.1642701691454498</v>
+        <v>2.0257594655525</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>30.77177645308194</v>
+        <v>29.42024857026921</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.85625630450504</v>
+        <v>8.864740823123185</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>18.52531607179143</v>
+        <v>17.86332864460035</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>24.0716175785204</v>
+        <v>25.21017076473225</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-0.7646266134834114</v>
+        <v>-1.534024617889912</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>27.95828030837701</v>
+        <v>25.92616033427528</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.13104158290625</v>
+        <v>28.34981399645464</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>4.004604649113205</v>
+        <v>7.079296463924369</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>41.83917592597386</v>
+        <v>40.53216180443025</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>43.16700038394826</v>
+        <v>44.14366615764048</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>42.60894796845109</v>
+        <v>40.4837731596979</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.34718453539138</v>
+        <v>49.88721817050239</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>50.64378034990469</v>
+        <v>52.40188103459666</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.70266524479323</v>
+        <v>13.15363474297382</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>34.49584808676234</v>
+        <v>32.04839060127742</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>42.16628349566997</v>
+        <v>40.52416693971776</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>14.12579160280998</v>
+        <v>13.25830217440115</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>36.04022857674268</v>
+        <v>35.0185855296323</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>40.55574213034066</v>
+        <v>39.37086240415144</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1.686691821602089</v>
+        <v>-1.182532424550335</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>36.48384839901794</v>
+        <v>34.6703926759362</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>41.94542271361294</v>
+        <v>39.52745072357185</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>1.996170421521544</v>
+        <v>7.127133190043715</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>57.79397122101391</v>
+        <v>54.97358753398176</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>2.595322061866948</v>
+        <v>4.060029711650238</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>12.49353638053092</v>
+        <v>13.66759351215706</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.32793327706537</v>
+        <v>21.7600417484449</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2.239350599158197</v>
+        <v>-2.004557901356648</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.83739803755042</v>
+        <v>25.15852782632792</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.4980137744103</v>
+        <v>28.84451100920829</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>4.677641186396791</v>
+        <v>7.583857755489493</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>42.30539584075066</v>
+        <v>40.96052292730972</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>46.96108504095896</v>
+        <v>45.93748864072712</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>48.05218627682712</v>
+        <v>42.29313810060761</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>51.12715412862997</v>
+        <v>49.82599020516203</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>58.35794287737888</v>
+        <v>55.45601483341362</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>4.340502056630271</v>
+        <v>9.329599172100094</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.64907690864241</v>
+        <v>28.80862133577216</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.0891301863634</v>
+        <v>38.38092699826571</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.219033349497522</v>
+        <v>9.932500024944209</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>34.20701244391604</v>
+        <v>32.66047370173458</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>39.83413138269295</v>
+        <v>38.02607707656969</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-2.437975820772735</v>
+        <v>-2.253945561375716</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.99085944571426</v>
+        <v>32.53915065653572</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>43.87712104314213</v>
+        <v>41.10233823615877</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>3.02735284320017</v>
+        <v>6.76083405700679</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>56.70180871543003</v>
+        <v>53.95898179015957</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1.211012170855941</v>
+        <v>1.123980709142558</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>8.884222694085908</v>
+        <v>9.722194405827052</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>22.60591978556571</v>
+        <v>21.5208369905007</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2.515466512697099</v>
+        <v>-2.356566883634798</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>22.49783942184703</v>
+        <v>20.57710779035694</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>30.66949686093607</v>
+        <v>29.52572277904988</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>-0.7898185471164929</v>
+        <v>4.172278688036105</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>35.63166024748166</v>
+        <v>33.17347253278083</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>46.55062339011093</v>
+        <v>44.25961436243001</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>39.13787685345695</v>
+        <v>31.88148821559684</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>44.86369862880861</v>
+        <v>38.5270601772218</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>54.71959817325999</v>
+        <v>45.43848083246069</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>2.930640451110971</v>
+        <v>6.064062929323661</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.97058487526657</v>
+        <v>22.26844543822546</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>40.26068333060738</v>
+        <v>38.49621881759649</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.888592198154559</v>
+        <v>6.557475324750833</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>31.09644563121875</v>
+        <v>29.05546463763095</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>37.94982835900673</v>
+        <v>36.05252402794359</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2.501891457873072</v>
+        <v>-2.091015648501486</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>27.33810648406708</v>
+        <v>25.56480648959636</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>37.67272536159847</v>
+        <v>36.82612129849095</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0.01874231702800699</v>
+        <v>4.193446175110545</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>46.03425061343575</v>
+        <v>43.75414125071322</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>37.67305494202059</v>
+        <v>36.40369372363077</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.31312324419441</v>
+        <v>26.01809766766639</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>45.06533302276459</v>
+        <v>41.3885351643887</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>45.43181808695267</v>
+        <v>43.82124315273599</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>9.513206227052027</v>
+        <v>8.512366011058472</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>24.21940509253064</v>
+        <v>25.75450178104332</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.4212450837753</v>
+        <v>35.25085622757676</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>12.05302108911201</v>
+        <v>11.51623314776978</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>27.09680803992405</v>
+        <v>26.91673957259744</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>42.71131057873093</v>
+        <v>40.4686798161005</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-5.272221202053046</v>
+        <v>-4.386973999685047</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>9.462891741531958</v>
+        <v>13.33648802178243</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>18.61505674176575</v>
+        <v>21.97908174525338</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>-1.048167326419424</v>
+        <v>0.4710173731366645</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>32.04696863798308</v>
+        <v>30.98871944781591</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>51.33232272927759</v>
+        <v>47.75624081681822</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>31.93293938499306</v>
+        <v>32.33120083549839</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>53.88638026216152</v>
+        <v>51.86154932722228</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>60.27947754551194</v>
+        <v>59.78343172051584</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.264866917014885</v>
+        <v>5.536923478449175</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>29.71429172855336</v>
+        <v>31.80813131232223</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.45996915631666</v>
+        <v>45.55077530237303</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>66.18832651899288</v>
+        <v>63.54778876922643</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>61.25008240513237</v>
+        <v>56.49089638752424</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>69.67153721146087</v>
+        <v>66.95228262606912</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>68.77112545643696</v>
+        <v>68.4195562037344</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>19.92823037103751</v>
+        <v>18.12776714151444</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>64.2282197147097</v>
+        <v>62.31601885866604</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>69.39333911548755</v>
+        <v>66.56706188269223</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>19.07213061842367</v>
+        <v>17.75271858657211</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>41.26588738404286</v>
+        <v>40.75100980554122</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.55197254845433</v>
+        <v>50.2728195230552</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.9043107327841149</v>
+        <v>-0.2888670535678592</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>50.26349111298192</v>
+        <v>45.87025575522259</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>50.80150152551934</v>
+        <v>49.88692202494528</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>4.517895982110353</v>
+        <v>10.99253045906285</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>73.04910422263646</v>
+        <v>68.89876630519157</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>79.06240046764358</v>
+        <v>78.85532403219761</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>83.73521383294661</v>
+        <v>78.92984909431281</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>89.28176768277245</v>
+        <v>89.71908504781649</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>91.23230130026516</v>
+        <v>94.47402530549623</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.85813432945058</v>
+        <v>27.26181727183506</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>86.52998351993764</v>
+        <v>82.84023653734715</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>88.9775060958269</v>
+        <v>88.69043920810086</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>70.83002057537593</v>
+        <v>66.19764912151942</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>57.16502378025859</v>
+        <v>54.43231284615493</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>63.40960338896959</v>
+        <v>62.28183429529678</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>69.19430361488295</v>
+        <v>67.60616150229289</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>11.89755479897067</v>
+        <v>13.77697764190095</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>60.93526816959794</v>
+        <v>59.30758963315382</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>68.08179387119074</v>
+        <v>65.96918309910333</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>12.68621685736468</v>
+        <v>13.26998969191701</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>39.06506953843244</v>
+        <v>38.45763588614575</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>48.90819753107965</v>
+        <v>48.70907535198612</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-3.712057886778439</v>
+        <v>-2.383325571953534</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>47.17827837981088</v>
+        <v>46.15074885276299</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>51.23830532167966</v>
+        <v>51.86968331622246</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>3.939542365422515</v>
+        <v>9.563119861514656</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>73.727648155563</v>
+        <v>70.21882618256103</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>82.7155364421296</v>
+        <v>81.59546602648339</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>84.43994806874798</v>
+        <v>80.65694454881924</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>90.89892967469507</v>
+        <v>90.23604732025966</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>94.90335434981171</v>
+        <v>96.97846397873627</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>14.50341584564904</v>
+        <v>22.92144476530482</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>86.33057717533632</v>
+        <v>83.63714984442925</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>91.6259563660424</v>
+        <v>91.10926475964783</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>61.5776920454126</v>
+        <v>58.77897358701076</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>36.66784487945215</v>
+        <v>32.66056348619833</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>44.11214618696833</v>
+        <v>43.08026194481745</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.99260021366285</v>
+        <v>50.55648170853205</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>7.981072340029067</v>
+        <v>8.389756927202459</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>51.03435425401113</v>
+        <v>44.21050608228185</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>58.75860213449703</v>
+        <v>55.49607877097462</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>6.02602840610674</v>
+        <v>7.706755892676384</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>36.27417248985769</v>
+        <v>35.25005480028091</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>48.37445756813892</v>
+        <v>49.14184379958879</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-3.297243416609909</v>
+        <v>-1.972570329293053</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>43.65548409422976</v>
+        <v>39.83123578247174</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>48.58136956352624</v>
+        <v>50.71983739460622</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>0.4343678631482852</v>
+        <v>5.926461480585406</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>66.8447212429223</v>
+        <v>60.22832174504467</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>80.73000390872478</v>
+        <v>78.45559916948812</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>72.91918198495097</v>
+        <v>61.82219310294463</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>88.25956109121626</v>
+        <v>79.30918813378133</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>96.46101993242027</v>
+        <v>92.12911049060244</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>8.329324120507582</v>
+        <v>11.24660151340202</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>81.17458701165825</v>
+        <v>67.25207857738276</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>90.69713201386202</v>
+        <v>82.41757889553121</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>10.274196851603</v>
+        <v>11.86961246424865</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.2308875541318</v>
+        <v>12.72137687828178</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>20.41684684443321</v>
+        <v>22.0916454893342</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>3.269207204693416</v>
+        <v>2.812210843502427</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>12.90610276742314</v>
+        <v>11.2338271149129</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>16.65885540129675</v>
+        <v>15.79558400086765</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>5.198333431103119</v>
+        <v>4.831431199412592</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.26320779171898</v>
+        <v>20.26590705468091</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.77253257442879</v>
+        <v>25.8705894003349</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.97459760743713</v>
+        <v>10.26936323576115</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.55458956663746</v>
+        <v>13.64167027649208</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>12.0903323567537</v>
+        <v>15.94432135868011</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>11.43402319597412</v>
+        <v>9.740919731704285</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>10.4971590360143</v>
+        <v>9.803406361688056</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>18.05249597659384</v>
+        <v>23.11740749838444</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>7.020531009517629</v>
+        <v>9.492234086805963</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>12.48983773961811</v>
+        <v>15.51459028920513</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>21.26943133373563</v>
+        <v>22.85922201496435</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>9.602097378146901</v>
+        <v>4.518507047167638</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>8.495095101809113</v>
+        <v>5.059887349578609</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>11.5399983637289</v>
+        <v>10.31819759592188</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>1.032452733626275</v>
+        <v>-0.6181099174224656</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>4.486286087171806</v>
+        <v>7.582615373277928</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>14.60481158492713</v>
+        <v>15.0799429569115</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>23.53538216415636</v>
+        <v>24.01387602334256</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>24.93304808307304</v>
+        <v>27.89954801673134</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>3.409603613731178</v>
+        <v>2.767389313550535</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.7237759815187</v>
+        <v>25.39216777470921</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.90295284629817</v>
+        <v>26.129612877274</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>5.793115025033703</v>
+        <v>7.432284312075865</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.86330908179841</v>
+        <v>39.38225327301315</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>34.56099936772953</v>
+        <v>40.37132963632209</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.79612478699294</v>
+        <v>36.25904918482281</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>41.25885442910003</v>
+        <v>42.73181842624317</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.55609701951442</v>
+        <v>46.27350230671142</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>23.47686299493142</v>
+        <v>21.42454651505402</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>40.32530159006389</v>
+        <v>34.68632444089884</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.41436980349408</v>
+        <v>42.68640900186534</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>10.60858236631414</v>
+        <v>11.26435670221682</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>16.89957099928507</v>
+        <v>20.43297643199617</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>21.79732832248275</v>
+        <v>25.34590894678643</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>8.930697737168403</v>
+        <v>4.84697234102088</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>18.05587885883664</v>
+        <v>17.28899412179067</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>24.36518550219419</v>
+        <v>26.44528160410317</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>23.78329560025599</v>
+        <v>28.27288543300032</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>11.14339417788373</v>
+        <v>11.41358706652385</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.44311252633373</v>
+        <v>22.18911841886315</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.32296184451883</v>
+        <v>26.42843135726842</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>3.320546561502827</v>
+        <v>1.973291239030349</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.20029268321242</v>
+        <v>26.69284814318398</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>30.41328684658031</v>
+        <v>28.37693248349855</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>9.1967874199447</v>
+        <v>8.395440030293425</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>39.86721951207197</v>
+        <v>42.63049908073995</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>42.93299944553934</v>
+        <v>44.56926352185587</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.46779073749842</v>
+        <v>38.28952185114058</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>40.87069681824616</v>
+        <v>44.02408282239293</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>45.04345024180911</v>
+        <v>49.11688274440962</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>18.1210326993551</v>
+        <v>16.95840610320093</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>38.09075271797278</v>
+        <v>33.58654760534741</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>43.06638863209311</v>
+        <v>42.0375059437721</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.46232226707407</v>
+        <v>10.04065495591843</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>17.58056142779829</v>
+        <v>20.23074357417786</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>22.72877553887315</v>
+        <v>25.58040253002481</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>9.673824399145165</v>
+        <v>4.65942872896558</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>16.22604629526964</v>
+        <v>17.42427071192112</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.82751246290467</v>
+        <v>29.53903757076365</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>7.862119921721479</v>
+        <v>5.45167212255582</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.01180177959641</v>
+        <v>31.46993152150143</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.595102793049957</v>
+        <v>5.575628913691819</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.57401443705524</v>
+        <v>12.42820073345781</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>18.28253789027401</v>
+        <v>21.07298772200442</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>2.298990833014674</v>
+        <v>1.051585631131704</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.68776823309855</v>
+        <v>19.86626232508143</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.3802340257001</v>
+        <v>26.93962929369404</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>0.383717987063779</v>
+        <v>2.73229027900291</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.82453688606128</v>
+        <v>30.54624073525238</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>33.32581476864576</v>
+        <v>38.44016155909816</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>20.5838430663243</v>
+        <v>23.66036241778131</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>23.48541366567714</v>
+        <v>28.53678550045622</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>27.19379136059432</v>
+        <v>34.03227368486556</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>8.487306346024017</v>
+        <v>8.264490930948387</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>23.5285837813897</v>
+        <v>21.1754241566589</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>32.9750593283851</v>
+        <v>38.90334777225441</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>5.065477833741941</v>
+        <v>4.743972678264157</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>14.22909300042492</v>
+        <v>16.38692876860367</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>21.39198853374479</v>
+        <v>24.79363550594035</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>7.996050577260418</v>
+        <v>4.622130848238584</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>17.66259248377575</v>
+        <v>15.18047837222603</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.8654961181062</v>
+        <v>29.02523975509629</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.67449240823824</v>
+        <v>1.830995333391765</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>20.33747697587782</v>
+        <v>23.17389319722499</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>10.25822295229474</v>
+        <v>14.69924970093703</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>7.647040610294159</v>
+        <v>9.396822181713647</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.41405442494926</v>
+        <v>22.7955885756255</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.73918757177888</v>
+        <v>28.17437592460821</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>3.003838710562825</v>
+        <v>2.968545731391877</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>4.049427613508591</v>
+        <v>8.278388482359684</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>7.464789675583614</v>
+        <v>14.67608614240753</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.22170725235769</v>
+        <v>10.10162858212848</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>14.58984434838586</v>
+        <v>15.35450440441029</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.01408251922586</v>
+        <v>27.96218279467112</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>9.71782745921918</v>
+        <v>3.275497921239481</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>7.712138171538719</v>
+        <v>6.146114433527401</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>13.08644751823876</v>
+        <v>15.41071491878229</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>2.739544069150355</v>
+        <v>0.5776921042148793</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>10.07580808381705</v>
+        <v>14.25692205639749</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.51904446606842</v>
+        <v>29.66789833082405</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>10.50862834565476</v>
+        <v>15.65092885447853</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>34.72373370215324</v>
+        <v>36.08414967241195</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>36.28028685417209</v>
+        <v>45.80011249398725</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>4.857131181269708</v>
+        <v>2.813920530893839</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>6.778041727318939</v>
+        <v>11.29376099933049</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>14.59035806005257</v>
+        <v>27.06467815373646</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>34.5564318416161</v>
+        <v>38.51112933040606</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.29052342463659</v>
+        <v>32.18458219886627</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>40.19498456141709</v>
+        <v>42.52977998320934</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.1141614603499</v>
+        <v>46.9412180730572</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>16.71593381907928</v>
+        <v>14.25036460532768</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.2171980206147</v>
+        <v>37.1102853712072</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>35.69579901908715</v>
+        <v>41.77562046625484</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>19.34599536561996</v>
+        <v>16.80555797155757</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>25.97326055771568</v>
+        <v>28.39481744300867</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.65200299780377</v>
+        <v>38.02944693860084</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>10.52129729247613</v>
+        <v>6.088318242949157</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.81465963146812</v>
+        <v>30.16461151840737</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.20839589727537</v>
+        <v>38.11395832283632</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>9.436811932753287</v>
+        <v>9.026164915371631</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>45.7007507784226</v>
+        <v>48.59460133452476</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>57.13915172025512</v>
+        <v>58.18819349912713</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>60.37864505756301</v>
+        <v>63.41101451627023</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>68.80864817333178</v>
+        <v>70.34320312748793</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.04439013698277</v>
+        <v>77.46047006921667</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>32.52411661715186</v>
+        <v>26.05462397884182</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>54.60227916935126</v>
+        <v>57.89569833244273</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>60.9267637101855</v>
+        <v>65.22224897029835</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>41.60034956634424</v>
+        <v>44.23104070058869</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.15758937278291</v>
+        <v>30.89489846553302</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>31.398964753218</v>
+        <v>38.16119818571644</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>43.73256394301954</v>
+        <v>46.32301969774168</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>13.00206070343089</v>
+        <v>12.14793793068403</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.12910666368959</v>
+        <v>37.7203833863701</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>35.69575517177984</v>
+        <v>43.72372971930355</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>16.62969746460342</v>
+        <v>14.45966776181451</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>25.6416055905068</v>
+        <v>28.34714009514886</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.30770766578346</v>
+        <v>38.53527582105985</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>9.708306462151619</v>
+        <v>5.368857379627503</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.93964978567944</v>
+        <v>32.05946318987171</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.00002532429132</v>
+        <v>41.91528125773944</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>11.22129972492114</v>
+        <v>9.709086255170638</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>48.92203355073774</v>
+        <v>52.83260785855192</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>63.70177227976991</v>
+        <v>63.60186568626169</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>61.59250556488903</v>
+        <v>66.47211893877073</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>65.95106444172956</v>
+        <v>70.29145308040339</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>80.70030915295976</v>
+        <v>80.40863364796652</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.22062979129141</v>
+        <v>23.7838599552525</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>50.71578481506842</v>
+        <v>59.67164559123252</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>64.77829428292796</v>
+        <v>69.52210141057191</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>34.58089114592791</v>
+        <v>38.51210506124771</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>9.72455159491542</v>
+        <v>14.26263036702991</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>15.84712667085035</v>
+        <v>22.74630280425235</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>29.34359033320936</v>
+        <v>34.22537640092588</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>5.823408898241514</v>
+        <v>6.919261191686669</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.05436233383395</v>
+        <v>30.73174663876634</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>34.67093993122323</v>
+        <v>41.08830601566338</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>11.69978404143809</v>
+        <v>10.0142436137473</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>24.45373630814867</v>
+        <v>26.46762002385332</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.75434409608619</v>
+        <v>39.89639465252311</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>10.71762114444462</v>
+        <v>5.283433222219532</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.63397381163573</v>
+        <v>28.6290505651925</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.54922893900331</v>
+        <v>43.40737805404541</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>5.866860576181345</v>
+        <v>4.952482257283268</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>38.65074125730542</v>
+        <v>41.1512471658359</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.92445974265025</v>
+        <v>60.80079780364527</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>44.88630025496156</v>
+        <v>42.82197199378141</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>56.00032632853193</v>
+        <v>57.14704527984162</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>76.76159762446392</v>
+        <v>75.99634262158506</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>9.728890646651827</v>
+        <v>8.636365286061356</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.85316818436456</v>
+        <v>39.34150895742738</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>60.29275310581958</v>
+        <v>61.4257886718316</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>11.63751746635652</v>
+        <v>11.1627564463697</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>14.78555582997083</v>
+        <v>12.67154114197959</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.16934486604164</v>
+        <v>22.70470167706391</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>7.860990602867759</v>
+        <v>5.455882235827723</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.49949128303793</v>
+        <v>16.6844123598776</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.30892217502161</v>
+        <v>21.86333149942746</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>7.494969717629051</v>
+        <v>6.265804891740899</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.35303798583833</v>
+        <v>23.88941540630584</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>31.32294320773224</v>
+        <v>30.00835769560453</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>14.44761522617047</v>
+        <v>11.83571518689832</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>17.27793354012486</v>
+        <v>15.20487267965384</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>15.26474263570475</v>
+        <v>17.72907325642937</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>13.22730374448585</v>
+        <v>9.830088482565118</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.49374338096358</v>
+        <v>10.12600238476168</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.39582489148219</v>
+        <v>24.67252279409465</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>13.0371021213704</v>
+        <v>12.57463528508857</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>22.25385534892798</v>
+        <v>20.87012280943069</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>30.27577009504788</v>
+        <v>27.64921885450863</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>14.31263564233833</v>
+        <v>8.125984998655369</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>20.51916770121451</v>
+        <v>12.87999482775765</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.98261505828318</v>
+        <v>17.67848595625994</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.992539804760412</v>
+        <v>4.18355349043685</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>18.36403024931268</v>
+        <v>16.71961820854288</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>14.18508805933666</v>
+        <v>13.61939239975643</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>23.08181103324405</v>
+        <v>22.87823957801435</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>24.33368407917768</v>
+        <v>27.06339284859056</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>6.979034039269948</v>
+        <v>5.130002268082951</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>33.50001630848814</v>
+        <v>30.0588872069618</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>34.42063635943951</v>
+        <v>30.88614355549648</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>5.814387076951881</v>
+        <v>8.142967048359882</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>38.35654068021309</v>
+        <v>41.64786475334485</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>37.85225158243411</v>
+        <v>42.84267662336075</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.81539171756871</v>
+        <v>36.2659675608307</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>41.88584948225612</v>
+        <v>42.3803495928423</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>40.78031842298446</v>
+        <v>45.58778934787318</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>21.85924319181371</v>
+        <v>19.54080977319787</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>38.24028252681673</v>
+        <v>32.47639311754017</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.99220437879083</v>
+        <v>41.25577348323419</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>16.27527623662586</v>
+        <v>13.44123673547958</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>27.36767803107161</v>
+        <v>25.3476742789245</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.21572606009027</v>
+        <v>28.62555035289988</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>15.05849222353425</v>
+        <v>8.398321476514344</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>34.31633285438391</v>
+        <v>26.53777774658213</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>37.54103066347049</v>
+        <v>33.72137362459188</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>40.54225028543519</v>
+        <v>38.29003214181944</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>7.858749013797407</v>
+        <v>9.270942822099709</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>19.56109138927801</v>
+        <v>20.46094640936457</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>23.4894354931134</v>
+        <v>24.99767106998583</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>5.28990157418194</v>
+        <v>3.927362672021651</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>32.21055028738627</v>
+        <v>30.81187606202212</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>36.26804145753798</v>
+        <v>32.50986171967991</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>6.578135686733273</v>
+        <v>8.50959376785195</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>40.63569424569398</v>
+        <v>44.20790609760158</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>43.64641411837474</v>
+        <v>46.29230482587471</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>41.13571195877974</v>
+        <v>38.20591615199218</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>41.15093680599765</v>
+        <v>43.79521077010726</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>44.04692961392053</v>
+        <v>48.33852398034817</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>13.65885263442112</v>
+        <v>14.63438412703385</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>33.22585109305606</v>
+        <v>30.93845815135003</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>39.6185914244416</v>
+        <v>40.07151895405319</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>14.23640310853806</v>
+        <v>11.81231080045477</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.84670283045443</v>
+        <v>24.7833084554962</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.77149596629295</v>
+        <v>28.41655431175313</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>14.80153939842183</v>
+        <v>7.930972483534614</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>32.03127424179187</v>
+        <v>26.45611125178498</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>39.47208644453463</v>
+        <v>36.49054080059787</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>10.97626806455977</v>
+        <v>9.483217872760871</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>42.82039389295028</v>
+        <v>40.96821891945333</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>3.360333045598729</v>
+        <v>4.392999022533473</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.45894190471264</v>
+        <v>12.1729287006537</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>18.49425135232554</v>
+        <v>21.35906887312473</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>5.441635437129364</v>
+        <v>3.600173214586629</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.94897920818082</v>
+        <v>25.05461959446023</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>35.599577203317</v>
+        <v>32.56199676327329</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>0.2328446873816787</v>
+        <v>4.51076355078763</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.69937966723219</v>
+        <v>34.39226140192741</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>38.59350142745707</v>
+        <v>42.55571350370937</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.31635916532238</v>
+        <v>25.89269618866291</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.57848801815341</v>
+        <v>30.85938029501584</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>32.18078862343718</v>
+        <v>36.38442911716694</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>6.212512754493734</v>
+        <v>7.625164409049159</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>21.85085777307908</v>
+        <v>20.53939120295745</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>34.56673943827154</v>
+        <v>39.78561398718546</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>10.03433806034275</v>
+        <v>8.00956007656346</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.0663065144612</v>
+        <v>22.43349299899026</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.92241238938843</v>
+        <v>29.42362126512673</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>12.91845980269193</v>
+        <v>8.057022503697294</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>32.16607287025747</v>
+        <v>23.62611648235204</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.8709775562829</v>
+        <v>36.16621771748</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>5.157939160309905</v>
+        <v>6.287691068730457</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>35.89141666400911</v>
+        <v>32.55092137298521</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>24.30598521917151</v>
+        <v>23.62954424316249</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>20.26786061273953</v>
+        <v>17.79350649554522</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>39.78631515363436</v>
+        <v>32.50497379422383</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>44.22523197874433</v>
+        <v>37.87766558482197</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>9.066384480636287</v>
+        <v>7.297362650056325</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>16.91143915144306</v>
+        <v>15.84254112129724</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>20.56351925912278</v>
+        <v>22.24494771554436</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>9.189901873120881</v>
+        <v>8.35256328845249</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>16.8043337963641</v>
+        <v>15.79533913236054</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>33.02763273016814</v>
+        <v>29.56373562041176</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>14.45970293910977</v>
+        <v>6.239117892447517</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>17.34229415033474</v>
+        <v>12.05401629925498</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>24.05857153044809</v>
+        <v>22.09816896553366</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>4.86962025531475</v>
+        <v>2.658078847461635</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.80291658631376</v>
+        <v>18.92683683112279</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>38.16807995323934</v>
+        <v>35.74261314593366</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>19.98027256273845</v>
+        <v>20.0877545463014</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>51.17221788937342</v>
+        <v>42.85112228555644</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>53.68669701923581</v>
+        <v>52.89934619240083</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>8.578347459076838</v>
+        <v>5.057038788105853</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>18.82677948272595</v>
+        <v>16.76896160326801</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.58973226153723</v>
+        <v>32.23274716153417</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>49.30581164801104</v>
+        <v>46.92802599331131</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>45.88806725551878</v>
+        <v>41.52559904275645</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>56.76779350702348</v>
+        <v>52.09371298504368</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>60.27250017576376</v>
+        <v>56.0163841583613</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>22.94251343477982</v>
+        <v>17.57486239923544</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>47.36702867290183</v>
+        <v>44.51806987678121</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>47.92688076253425</v>
+        <v>48.41422595121028</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>16.47795563827703</v>
+        <v>13.50005288793201</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.35638549360313</v>
+        <v>28.64386750936625</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>40.55966928107928</v>
+        <v>37.98586658348356</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>14.54913201346388</v>
+        <v>8.404909005030333</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.11029774521791</v>
+        <v>36.41630607667062</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>49.05332542008919</v>
+        <v>44.05286454660634</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>8.129474522845447</v>
+        <v>8.971563337594233</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>54.36637024304263</v>
+        <v>52.20651322817044</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>66.16803452846514</v>
+        <v>62.14017733470794</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>66.64778581406594</v>
+        <v>65.07735939997644</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>76.50744993126477</v>
+        <v>73.25202357618072</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>84.91947869430874</v>
+        <v>80.3205713736575</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>27.82284814220721</v>
+        <v>24.12107999863932</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>63.36893958894267</v>
+        <v>60.98247242718035</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>67.71185931254043</v>
+        <v>67.08692989697497</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>55.09893137380917</v>
+        <v>51.97514463363405</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>40.31333378095995</v>
+        <v>39.98597196364032</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>47.00071344795668</v>
+        <v>47.37711863529708</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>57.61827954569991</v>
+        <v>54.7550457332232</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>17.00706791895506</v>
+        <v>14.82888593741059</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.58746013607703</v>
+        <v>44.53608006747817</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>12.61430829382599</v>
+        <v>11.17445338015255</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>27.96728443616369</v>
+        <v>28.57426169664838</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>40.1787516020328</v>
+        <v>38.29692249128561</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>13.35004365588187</v>
+        <v>7.677271866185698</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>40.49586709043135</v>
+        <v>38.04512356289686</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>51.64894843853092</v>
+        <v>47.60749204831784</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.16690137185871</v>
+        <v>9.498740256100707</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.54444696193667</v>
+        <v>56.0531934926512</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>71.81741267572875</v>
+        <v>67.05112846028209</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.59423212268715</v>
+        <v>67.82084168221959</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>72.85391321520387</v>
+        <v>72.68848331196511</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>87.29176595530507</v>
+        <v>82.67065420100198</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>17.48600928864837</v>
+        <v>21.52965937975083</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>58.98881180138456</v>
+        <v>62.40687042766323</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>70.86935054794625</v>
+        <v>70.98133991908574</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>47.31968417402441</v>
+        <v>46.75706625654571</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>23.72633410016382</v>
+        <v>22.73187969172784</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>31.42511536503681</v>
+        <v>32.18053033263666</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>43.51411351076672</v>
+        <v>43.1387002108834</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>9.923562007926314</v>
+        <v>10.30735953282634</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>43.43213668800355</v>
+        <v>37.60343464483359</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>44.64077980220287</v>
+        <v>47.5632112586857</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>10.16780454843894</v>
+        <v>8.437226860235725</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.43948605403305</v>
+        <v>27.29539657256728</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>43.62079572282489</v>
+        <v>41.08099043048231</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>15.51087410968947</v>
+        <v>7.903415380748459</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>38.97889009353682</v>
+        <v>33.81812638709263</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>54.18430062672222</v>
+        <v>49.2517533675879</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>7.465423693640957</v>
+        <v>6.46359266219887</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>47.51356362612886</v>
+        <v>44.90104081869123</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>71.06409912026496</v>
+        <v>65.52990927629548</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>53.7782847595263</v>
+        <v>45.69233016971711</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>70.18752478382149</v>
+        <v>61.97801998789677</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>90.6142370170131</v>
+        <v>81.18302158941682</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>11.66987042167395</v>
+        <v>9.656851572841136</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>47.90674302317227</v>
+        <v>43.85583957897886</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>70.98166813185344</v>
+        <v>65.07702028139737</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>7.537206470959241</v>
+        <v>9.878747385752602</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>4.043287593616434</v>
+        <v>10.00702650821165</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>13.80341293967523</v>
+        <v>18.03739189096571</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>6.689837146113646</v>
+        <v>6.529755456524736</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>20.12229540958902</v>
+        <v>16.23844467125917</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>19.90285273682721</v>
+        <v>18.9823180673978</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>5.655096298516959</v>
+        <v>8.606613129716486</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>22.51007282669498</v>
+        <v>20.60694313696048</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>22.56030872833502</v>
+        <v>24.93573306036841</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>4.06187935159171</v>
+        <v>13.61067301278658</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>10.28110239282551</v>
+        <v>16.92581672334955</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>10.30500967534555</v>
+        <v>18.05911557295027</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>14.50559530533555</v>
+        <v>12.83665776412976</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>9.213159227928237</v>
+        <v>11.68013314986191</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>29.4859454448802</v>
+        <v>23.08578981094836</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.52675452590556</v>
+        <v>17.03835053012806</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>27.06992585527488</v>
+        <v>26.05699709042172</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>30.18368107857778</v>
+        <v>29.03464994026382</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>4.810925444110651</v>
+        <v>6.699184161063144</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>19.33794107213325</v>
+        <v>18.86866401950879</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>21.58934390839539</v>
+        <v>19.89490590701191</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>6.443824011980848</v>
+        <v>11.09403767670208</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>33.280780133839</v>
+        <v>30.78972061615783</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.226433564827786</v>
+        <v>9.820243024342663</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>5.581220922724135</v>
+        <v>12.01689797817476</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>12.72712192373577</v>
+        <v>18.60483345633376</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>4.396496830779096</v>
+        <v>5.570112118532499</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.08208306437373</v>
+        <v>19.98744966059474</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>18.52922868374887</v>
+        <v>21.51989477562253</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>4.468930318694483</v>
+        <v>9.121460520211915</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>23.78288334354692</v>
+        <v>27.303269674726</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>22.76648922304021</v>
+        <v>29.75847960811375</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>18.38451510576187</v>
+        <v>26.087817781642</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>22.1359199129673</v>
+        <v>29.85856041143128</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>23.62463700384804</v>
+        <v>32.21531789437016</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.75250932895166</v>
+        <v>16.0003100237586</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>18.35601762834902</v>
+        <v>20.61673511097623</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>28.01416484233601</v>
+        <v>29.97509327213109</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>21.88552051636234</v>
+        <v>18.24226643792033</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>31.60826192789931</v>
+        <v>30.01902214256605</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>30.78078629031887</v>
+        <v>31.01230474508038</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>7.328445352529172</v>
+        <v>7.346369507584523</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>36.10096911376048</v>
+        <v>31.81113112523661</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>33.97737929618525</v>
+        <v>31.78550570131653</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>9.443814458259526</v>
+        <v>14.55394816294255</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>51.98119023877257</v>
+        <v>46.86366338933628</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>4.711387172849072</v>
+        <v>7.104370841041504</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>3.493439812854707</v>
+        <v>10.23278130286534</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>13.18311827614338</v>
+        <v>17.25274697485342</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>2.969256730707208</v>
+        <v>5.000616775218095</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>16.88673533637175</v>
+        <v>19.59464618302438</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>18.76494035416428</v>
+        <v>21.71157830136953</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>5.629234595540961</v>
+        <v>9.49333571458444</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>25.01996070900421</v>
+        <v>28.12336507044209</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>27.16914596191251</v>
+        <v>31.3013554775545</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>23.6882738107871</v>
+        <v>27.7493456414685</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>23.93946794860857</v>
+        <v>30.67142170420905</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>31.31890974053159</v>
+        <v>34.89952998498075</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>9.480275512673062</v>
+        <v>13.16048207687177</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>12.5596270043354</v>
+        <v>18.82958034721307</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>23.70514358710834</v>
+        <v>28.96556824866232</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>18.94123441116752</v>
+        <v>16.6355997801718</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>30.94522460737879</v>
+        <v>29.11951618941721</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.54975112270126</v>
+        <v>30.48621389084258</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>6.389543239381361</v>
+        <v>6.790891219548758</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>33.60967772202863</v>
+        <v>31.00023032336574</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>34.04622407268874</v>
+        <v>32.75177940528869</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>10.94195758477897</v>
+        <v>14.79295874761893</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>52.61291985297679</v>
+        <v>47.10689675417154</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>1.522181337240983</v>
+        <v>5.154040556239675</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>0.3591740394228182</v>
+        <v>8.18705353280464</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>12.61621326937483</v>
+        <v>17.46062204222872</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>2.19396765877358</v>
+        <v>5.166209686565942</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>17.84115847855092</v>
+        <v>18.78626759942458</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>21.28513769698083</v>
+        <v>24.07232087205321</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>-1.546579007979119</v>
+        <v>7.922078939779961</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>20.97711566787637</v>
+        <v>24.84650516157661</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>25.38492360707639</v>
+        <v>32.01777719278019</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>18.64012159018046</v>
+        <v>21.9643792206395</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>20.37509122642741</v>
+        <v>25.09927572686837</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>29.19863559361232</v>
+        <v>30.16269698342261</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>4.321464560424541</v>
+        <v>10.05543370804603</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>6.688890865873425</v>
+        <v>14.82181281234304</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>29.24693966322068</v>
+        <v>30.70392422039258</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>15.33453916990502</v>
+        <v>14.51390912147554</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>30.48984436363557</v>
+        <v>28.73078149610863</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>30.26505307006861</v>
+        <v>31.27533172311185</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>5.380726294729122</v>
+        <v>6.957218170814965</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>32.46758347849086</v>
+        <v>28.2654855727972</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>30.69279281101504</v>
+        <v>31.85948189346523</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>5.379060189137224</v>
+        <v>12.86383440556684</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>45.54535034613772</v>
+        <v>41.87985588563939</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>35.05035425299639</v>
+        <v>33.23568420689487</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>24.89475224615159</v>
+        <v>25.96178786911652</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>44.70182705838137</v>
+        <v>37.71392765323243</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>43.82270500796972</v>
+        <v>38.55510102945676</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>17.24952998166238</v>
+        <v>16.47333185962177</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>28.61321026125314</v>
+        <v>28.44053304103554</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>34.02614346788474</v>
+        <v>32.65459989935869</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>18.33309501633717</v>
+        <v>16.94944365671238</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.21444351380593</v>
+        <v>25.20034746242596</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>41.91063774685547</v>
+        <v>36.91618257554629</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>4.062891434471787</v>
+        <v>5.682539452363965</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.26081128332508</v>
+        <v>19.73271386693208</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>25.24532169729403</v>
+        <v>25.52807738466758</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>7.33941130583105</v>
+        <v>9.475019385599955</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>34.94096632971136</v>
+        <v>31.07453948016429</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>50.69788507780318</v>
+        <v>42.55837265747691</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>29.05109808789611</v>
+        <v>30.12683790085261</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>51.63483682819542</v>
+        <v>45.02254552900161</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>56.56856930803509</v>
+        <v>50.60910942326559</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>14.08715072545782</v>
+        <v>13.76535202204409</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>31.82426400375237</v>
+        <v>30.33328802591753</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>39.95376328726282</v>
+        <v>39.94004321564509</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>51.85777566603324</v>
+        <v>48.79221575860034</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>51.92623373469485</v>
+        <v>46.65932839953462</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>58.17455847742236</v>
+        <v>53.03798504757161</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>57.63912667393989</v>
+        <v>53.36664441411261</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>31.24802462738942</v>
+        <v>24.15733038949211</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>54.2204247833477</v>
+        <v>50.50986689870302</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>50.75596543061312</v>
+        <v>50.18529931859305</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>22.39544370098191</v>
+        <v>19.22417449223039</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>7.048443812589952</v>
+        <v>8.217891254974791</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>46.69353025684991</v>
+        <v>40.83299487838257</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>47.9309913020045</v>
+        <v>42.67417021919204</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>10.77393443693367</v>
+        <v>16.12359857848383</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>65.10260929894103</v>
+        <v>56.35182278846908</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>70.45521351440388</v>
+        <v>62.1697261052723</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>68.02397290959313</v>
+        <v>61.68698926314892</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>74.59265828760695</v>
+        <v>68.57197531668075</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>79.55779096824597</v>
+        <v>71.79213667428672</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>33.50004452036462</v>
+        <v>28.31417940505585</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>73.21662410333039</v>
+        <v>63.63769878206548</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>72.60560748335566</v>
+        <v>66.96976279696321</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>55.44932476323019</v>
+        <v>50.9100456956962</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>50.42799293339943</v>
+        <v>46.24994467894032</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>53.49210466241449</v>
+        <v>50.65717279642087</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>57.52811086881471</v>
+        <v>53.15024785356223</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>25.92152152935046</v>
+        <v>21.74107800600698</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>52.40330886131463</v>
+        <v>49.44315454803177</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>49.85343305850808</v>
+        <v>50.33847056224518</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>17.66638244719774</v>
+        <v>16.71222204785271</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.53660651194105</v>
+        <v>31.53546157803416</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>44.0009534508905</v>
+        <v>40.49663181173568</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>5.114076343565031</v>
+        <v>7.450957125843988</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>45.27982462746455</v>
+        <v>41.83148105960456</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>48.39930437291212</v>
+        <v>44.25635793912241</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>11.19338069423311</v>
+        <v>16.13396784397339</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>67.36908602142898</v>
+        <v>58.39572819949375</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>74.10971061679436</v>
+        <v>64.58399788925678</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>71.22980551032214</v>
+        <v>63.83439489017285</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>76.47553668729373</v>
+        <v>69.60079237331186</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>82.73378550433742</v>
+        <v>73.76812676208266</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>25.26524337242483</v>
+        <v>26.12918526877359</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>74.85078944894414</v>
+        <v>65.22046527109111</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>77.25353023082658</v>
+        <v>69.39305845070766</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>47.47126638560684</v>
+        <v>47.58721514380766</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>35.64647008589822</v>
+        <v>32.3654727439223</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>40.54326755153606</v>
+        <v>39.98093349059461</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>43.62052075796336</v>
+        <v>43.42297482841327</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>18.28655799608232</v>
+        <v>17.60444217641778</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>48.54222147809323</v>
+        <v>42.45260174369368</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>46.19813630453593</v>
+        <v>46.69935094083775</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.95189486534924</v>
+        <v>15.29377888033756</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>34.06076591142953</v>
+        <v>31.963362645065</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>47.64491117334984</v>
+        <v>43.13747328509726</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>6.899669524229147</v>
+        <v>8.000002850551773</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>46.40236914647031</v>
+        <v>38.68222346077987</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>49.54052739450172</v>
+        <v>44.88534875537297</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>9.06536715675019</v>
+        <v>14.20848756381882</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>64.41310121230359</v>
+        <v>52.13202723107666</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>73.88220366476054</v>
+        <v>63.53113400701314</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>67.0626536856557</v>
+        <v>51.46440965962851</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>80.14635981703969</v>
+        <v>63.92748375677495</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>85.87324101255325</v>
+        <v>72.098107860981</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>20.10820874322029</v>
+        <v>18.55736763059745</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>73.62257675673436</v>
+        <v>54.53199294269168</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>78.84857142559761</v>
+        <v>64.91099149741909</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLpolynomial_2/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.575</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.246</v>
+        <v>15.336</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.615</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.501</v>
+        <v>17.699</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.927</v>
+        <v>0.949</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.953</v>
+        <v>5.815</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>13.88819760700381</v>
+        <v>15.50324099556801</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>16.59130430242756</v>
+        <v>15.85104700617777</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.40105377078367</v>
+        <v>27.37464849120563</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.056596006435438</v>
+        <v>2.23559253217163</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.46187880494818</v>
+        <v>17.40282073174401</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.36090891505938</v>
+        <v>21.54921350683857</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5.569503573131087</v>
+        <v>3.574801039869097</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>27.49467278525024</v>
+        <v>27.93857762998793</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>34.33147315396942</v>
+        <v>32.01444431645989</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.02949344903757</v>
+        <v>12.00899239397773</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>19.697274953255</v>
+        <v>16.96971863297637</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>22.35741119830701</v>
+        <v>17.70394927385379</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.00505620819292</v>
+        <v>12.52674849703551</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>15.65696198776245</v>
+        <v>14.54308413737682</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>31.33848890993752</v>
+        <v>25.91423742705311</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>13.53606732361729</v>
+        <v>15.97042335864808</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>25.25488381615206</v>
+        <v>22.81410814337464</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>32.32702333385609</v>
+        <v>32.17083610773904</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>0.8694525186007596</v>
+        <v>6.248464138746517</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>7.602266527800001</v>
+        <v>9.996701829239294</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>13.25380358781267</v>
+        <v>17.09993513899537</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.9027356303124563</v>
+        <v>-0.246741712373737</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.86137249608121</v>
+        <v>17.31898761943812</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.39427151837261</v>
+        <v>16.39740159065423</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.57971006186203</v>
+        <v>24.44036085322902</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>33.67678611507265</v>
+        <v>30.19472968768174</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.13487360251067</v>
+        <v>-0.8028093738035587</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>32.15566024585223</v>
+        <v>29.42595416443424</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>32.02970895241288</v>
+        <v>30.39759007474871</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.328081501530523</v>
+        <v>5.256314974032204</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>49.21460609905543</v>
+        <v>43.23667292167268</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>50.26749897511087</v>
+        <v>44.04987120191635</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>46.13557926200575</v>
+        <v>44.6160691534906</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>54.34595712515552</v>
+        <v>51.92100115640689</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>57.90763876608236</v>
+        <v>53.12304137182605</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>25.24887907501804</v>
+        <v>24.44017656671409</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>44.9228804950568</v>
+        <v>48.05244207195435</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>54.24515702021631</v>
+        <v>52.67055589478672</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>15.49401381824379</v>
+        <v>17.45015677565097</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>32.59974201092952</v>
+        <v>32.10356776832229</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>36.35292829618363</v>
+        <v>38.82554403987735</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.790976193624157</v>
+        <v>5.733803101586663</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>25.19823182885298</v>
+        <v>28.65583256189239</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>33.40856087165531</v>
+        <v>36.94272600658743</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>4.24067082111646</v>
+        <v>5.995088820714127</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>41.22441010986439</v>
+        <v>42.5141695007618</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>11.50968294581073</v>
+        <v>11.73396832381393</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>25.56802679533079</v>
+        <v>22.4543466426839</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>30.93834312583222</v>
+        <v>28.7637188760649</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>0.2121214262498938</v>
+        <v>-2.187620467329456</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>33.3057368582268</v>
+        <v>29.63366917879643</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>34.31134051291122</v>
+        <v>33.48586744907593</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>8.851616105919312</v>
+        <v>6.961611447799477</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>51.96939863097018</v>
+        <v>46.43756395929029</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>54.05349770710387</v>
+        <v>49.65570641356382</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>48.25075541398287</v>
+        <v>48.64796885265396</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>55.67795179392738</v>
+        <v>54.69665251850549</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>60.77361659132223</v>
+        <v>59.70378403668541</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>19.85401296964417</v>
+        <v>15.56007497251956</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>43.10115017624511</v>
+        <v>42.59377918598805</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>52.9330700067707</v>
+        <v>50.20137692840089</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>13.11064356118391</v>
+        <v>13.54362664247035</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>31.38199545567879</v>
+        <v>29.10630971453503</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.84255584403448</v>
+        <v>38.08352439013787</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>1.298838898597406</v>
+        <v>3.201422837901813</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.22823603533263</v>
+        <v>26.83144054324172</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>36.85641382092698</v>
+        <v>40.32554512294209</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>5.550884728074529</v>
+        <v>7.214922693007797</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>44.08476309640201</v>
+        <v>44.43964163165105</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>5.214888737440432</v>
+        <v>3.285451052323275</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>14.95743858462385</v>
+        <v>15.23960747149695</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.64378757463329</v>
+        <v>25.70143602541055</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>-0.07516403902874202</v>
+        <v>-1.093303099163517</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.45413863563255</v>
+        <v>26.85386734365563</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>33.81254077168931</v>
+        <v>35.88856638640848</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>3.520200285360758</v>
+        <v>0.9741360392345086</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>39.57288213606132</v>
+        <v>38.43064308600576</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>48.51604906942763</v>
+        <v>45.92248723816017</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>31.73790268204896</v>
+        <v>35.94257040598353</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>38.32225811842436</v>
+        <v>41.2918423767237</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>43.99503693852559</v>
+        <v>45.31958130022653</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>10.66826990297642</v>
+        <v>8.280491837371656</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>29.316978551315</v>
+        <v>29.05091216157873</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>49.2230776927683</v>
+        <v>45.88488945257512</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>6.97994933271384</v>
+        <v>9.218839612216211</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.28349838182735</v>
+        <v>27.16534168198613</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>35.29254222533976</v>
+        <v>38.61521487065448</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>1.594265055916477</v>
+        <v>6.550672375638971</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>21.66738415765773</v>
+        <v>25.42251169511874</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>36.81083585096976</v>
+        <v>40.90284773026724</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1.907825361826628</v>
+        <v>5.645547581153881</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>34.2231938006899</v>
+        <v>38.49557143143161</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>22.17079127779496</v>
+        <v>26.57724549511075</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>15.41728895391537</v>
+        <v>17.75353271132939</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>29.22065515544989</v>
+        <v>31.28274856804513</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.69409813086986</v>
+        <v>34.40601858022323</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>3.710273931576484</v>
+        <v>4.289200425128403</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>14.40620963754752</v>
+        <v>16.68319653121442</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.73995478741097</v>
+        <v>22.06337768292806</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.3396789318069</v>
+        <v>13.52449884057621</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>20.82526392108514</v>
+        <v>19.82603799283017</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>32.88983705404728</v>
+        <v>29.46179942345621</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>-0.4029028424060215</v>
+        <v>3.201058834814983</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>7.16202372536198</v>
+        <v>7.481862007640386</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>15.47226440117523</v>
+        <v>13.81387230693626</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>-0.4989558915377081</v>
+        <v>-1.516428707816974</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>19.00050719068194</v>
+        <v>19.31240676894377</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>33.5287421719792</v>
+        <v>32.5239421932726</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>20.9313294317422</v>
+        <v>22.6063755196414</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>41.81370943997298</v>
+        <v>39.51036030074238</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>50.41169107750081</v>
+        <v>47.20163850255817</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>3.462389154698315</v>
+        <v>2.426527589187554</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>16.64769442293942</v>
+        <v>16.1760413100709</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.23079137859408</v>
+        <v>26.46833793030551</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>50.31525180779164</v>
+        <v>53.03232137327268</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>44.62361570273183</v>
+        <v>48.73112563856994</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>56.06282549963223</v>
+        <v>57.45729861547937</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>58.75269074695289</v>
+        <v>61.99678612748815</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.05188084318829</v>
+        <v>20.27047009065997</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>51.41800945065916</v>
+        <v>56.05066023544332</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>56.61109880308897</v>
+        <v>59.08675875775496</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>18.88750127742901</v>
+        <v>20.81392078017339</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>37.26776971839571</v>
+        <v>38.76437412668793</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>44.29381076464329</v>
+        <v>45.34079452886084</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>3.048633774743529</v>
+        <v>7.677712053138157</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>36.84891957607167</v>
+        <v>38.42205110380129</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.94317128582799</v>
+        <v>43.10955037414818</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>8.765023566565535</v>
+        <v>10.45896968677234</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>59.45554172838531</v>
+        <v>57.46891666091203</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>65.64128139594138</v>
+        <v>67.48386946527799</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>75.06389200094397</v>
+        <v>77.69193119272494</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>81.40988228121802</v>
+        <v>83.83975305625498</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>85.6393461494538</v>
+        <v>88.0939764952238</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>30.22590429603896</v>
+        <v>29.8886253834649</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>70.65239508509285</v>
+        <v>73.01574538943463</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>78.43314760314438</v>
+        <v>80.44545650873472</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>56.07491650416868</v>
+        <v>59.6438540020885</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>42.96277077636835</v>
+        <v>43.63361529631341</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>51.56108633919004</v>
+        <v>49.89406537393059</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>58.18738363579907</v>
+        <v>60.88201691819485</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>15.30614506447337</v>
+        <v>13.04850716776168</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>52.09897019552958</v>
+        <v>52.35025300957604</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>58.82482659270967</v>
+        <v>60.08593559529912</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>15.46474180815179</v>
+        <v>16.13675740287303</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>36.40579981198795</v>
+        <v>36.89569852643442</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.14816317976432</v>
+        <v>45.83881250944569</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>2.00920107164475</v>
+        <v>4.349112965698577</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>38.81608043014593</v>
+        <v>38.485479874757</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>46.20951667348579</v>
+        <v>48.09245428079302</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>8.872280272919802</v>
+        <v>9.7933405005572</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>63.58331700506771</v>
+        <v>60.14453003046118</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>71.22850148621313</v>
+        <v>74.07608659084347</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>78.17536283374884</v>
+        <v>77.51923809424308</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>81.6621177845166</v>
+        <v>81.28085148620899</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>88.95072253077836</v>
+        <v>91.71824863052532</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>27.49350669688448</v>
+        <v>19.88611402606198</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>72.71600422347709</v>
+        <v>69.46879262736208</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>83.27568880656848</v>
+        <v>83.27587827133357</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>50.67876937250732</v>
+        <v>55.18298546869707</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>22.99415144544817</v>
+        <v>28.07418381472629</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>32.73826205163052</v>
+        <v>37.38907776497133</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>44.5027060407521</v>
+        <v>48.41921170059885</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>8.296515630148008</v>
+        <v>9.37119208376529</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>42.42772555639327</v>
+        <v>45.42287704781986</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>55.01989459640085</v>
+        <v>55.89288068937607</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>10.01472428802277</v>
+        <v>10.35635861216577</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>32.94754150738873</v>
+        <v>34.17630606865018</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>45.51390036091858</v>
+        <v>47.82795191402485</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>1.776860915051074</v>
+        <v>6.491554034413301</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>33.79304894885134</v>
+        <v>34.40808441711452</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>47.38838814117908</v>
+        <v>50.48354272952486</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>3.768726979792799</v>
+        <v>5.446504443240492</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>49.69152467590412</v>
+        <v>50.16065670858458</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>68.27944711984465</v>
+        <v>70.96071286450456</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>51.03773061241762</v>
+        <v>57.31806570354458</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>66.54417881196267</v>
+        <v>68.67949359378488</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>84.27581255214966</v>
+        <v>88.11374548485747</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>9.577509273856814</v>
+        <v>9.340228103894557</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>49.31487277879428</v>
+        <v>54.69324567518363</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>73.57822040549435</v>
+        <v>77.01851212279354</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>11.25407881170478</v>
+        <v>9.508445418454539</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.30168486458331</v>
+        <v>15.83677541976318</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>27.08475551420236</v>
+        <v>28.84453204534453</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>-0.6849282148307552</v>
+        <v>1.404054841427889</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>19.69336087477285</v>
+        <v>21.07814487694463</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>23.82765783795679</v>
+        <v>26.39305255852</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>7.854969093000147</v>
+        <v>9.024229227624208</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>32.51016148297395</v>
+        <v>39.03019025347508</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.50618026997495</v>
+        <v>44.34243210863677</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>23.11195174098755</v>
+        <v>24.07260252041152</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>30.91564490221531</v>
+        <v>29.96653386687731</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.55946679157087</v>
+        <v>32.74942707108549</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>13.03582645209473</v>
+        <v>12.3648832711003</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>19.589830319517</v>
+        <v>21.66710398815523</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>33.20933242937173</v>
+        <v>39.75149397226097</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>11.50995284969253</v>
+        <v>10.28849857836446</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>25.66424623863591</v>
+        <v>23.33731170249601</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>30.9657431602985</v>
+        <v>29.56707591489182</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-3.145757581172422</v>
+        <v>-5.194376973624866</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>11.21646995712231</v>
+        <v>9.563530487338364</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>15.24129223819547</v>
+        <v>13.85203204897701</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>1.268009921766989</v>
+        <v>-1.365616944581696</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>27.02141532352131</v>
+        <v>26.29589674390234</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>11.32135286458697</v>
+        <v>11.13178245962484</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.32600971159365</v>
+        <v>23.87247224397011</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>29.22784373652266</v>
+        <v>31.41445576134504</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>-0.253983630961276</v>
+        <v>1.938392286169698</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.7188446242599</v>
+        <v>34.55114581105621</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>33.52796831145004</v>
+        <v>36.02975792453698</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>10.27426990606375</v>
+        <v>9.537612334745873</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>46.19067073202947</v>
+        <v>51.20918335539073</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>50.28963018629496</v>
+        <v>52.75884945711401</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>44.58251331511073</v>
+        <v>49.10027973981984</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>54.35788695430882</v>
+        <v>53.3168692807711</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>56.37628682921266</v>
+        <v>57.85149662170681</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>18.59471491842048</v>
+        <v>18.42396604797611</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>37.83005648390358</v>
+        <v>46.78617384469523</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>47.96853667006863</v>
+        <v>54.90103311984487</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>12.39943585019854</v>
+        <v>15.91069320050841</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>32.79027210511207</v>
+        <v>35.69484858813267</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>37.32926531328251</v>
+        <v>39.99614580531314</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>-1.364188896127938</v>
+        <v>-0.7776231758674079</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>32.2268985773822</v>
+        <v>31.55460150119543</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>37.31169113898377</v>
+        <v>35.1968068291078</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>6.681900223999847</v>
+        <v>6.166965542133035</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>51.83141223494972</v>
+        <v>50.92225154336332</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>6.371984362790922</v>
+        <v>4.737581753344831</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>17.09605392618455</v>
+        <v>18.34559325798326</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>25.68493175211747</v>
+        <v>27.34858924999223</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>-0.7478784757720938</v>
+        <v>-0.6483128291920863</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>29.97657896585839</v>
+        <v>31.58808077942027</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>33.95354343045199</v>
+        <v>36.42410517738305</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>10.4605292585083</v>
+        <v>8.305412667633648</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>46.31281677079964</v>
+        <v>49.48702805464274</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>51.68108958525156</v>
+        <v>54.07239632625777</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>46.01089588422282</v>
+        <v>51.39522789179297</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>54.02155657957877</v>
+        <v>53.04447280597969</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>58.89739642248566</v>
+        <v>62.9089313619795</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>14.52979731216854</v>
+        <v>8.716427282708429</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>34.54952558262467</v>
+        <v>38.42517666462409</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>45.3957525291796</v>
+        <v>48.70945357153299</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>8.991852598780923</v>
+        <v>9.990568995543128</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>30.11938879019453</v>
+        <v>29.44755340844516</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>35.77025777520504</v>
+        <v>37.08749268662315</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>-2.440679089392347</v>
+        <v>-4.1708411085372</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.93361934769013</v>
+        <v>27.33507552182165</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>38.76792669805637</v>
+        <v>36.30126436411653</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>6.098567615074387</v>
+        <v>4.956929858908534</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>50.45803218233493</v>
+        <v>48.80629268081832</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>3.15689248978228</v>
+        <v>-2.282980610246256</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>12.9441359148117</v>
+        <v>12.42550759596603</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.09613737248562</v>
+        <v>26.48376275977922</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>-0.9607329836669543</v>
+        <v>-1.506808348642839</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.11884742571062</v>
+        <v>27.63001943025098</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.74478581849516</v>
+        <v>38.31380463809828</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>7.162376238614144</v>
+        <v>4.417745638635989</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>39.23340207449731</v>
+        <v>43.80829928224664</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>50.12064010858384</v>
+        <v>53.62033720639961</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>35.76403535112119</v>
+        <v>45.13275510609061</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>43.06481721480593</v>
+        <v>48.71348231861749</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>49.18391788693374</v>
+        <v>58.26353648878286</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>10.5916595396232</v>
+        <v>4.854643047325414</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.00711703409083</v>
+        <v>30.00582030089868</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>45.10362665184099</v>
+        <v>51.06560686852063</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>5.613172841161269</v>
+        <v>3.171549807140668</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.32336957479543</v>
+        <v>23.59770423268676</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>33.56812347726709</v>
+        <v>32.84332220362062</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>-2.495741737028965</v>
+        <v>-5.392703698812678</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>22.81246095300369</v>
+        <v>20.30968799488011</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>34.05588161045988</v>
+        <v>30.97115167657842</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>3.081719237033571</v>
+        <v>0.3456282048965669</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>39.97481630273694</v>
+        <v>38.60149863947382</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>33.45015902804778</v>
+        <v>32.74197363347781</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>23.35721909423653</v>
+        <v>23.15219265000677</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>38.12609053047672</v>
+        <v>35.6618028916123</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>40.28553171606949</v>
+        <v>37.01969775342334</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>7.86805706941324</v>
+        <v>7.094203557808505</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>22.52384792042009</v>
+        <v>23.60825062421206</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>31.40048738059577</v>
+        <v>31.64465970184245</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>10.96378186534509</v>
+        <v>13.80340259313456</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>25.28093864978541</v>
+        <v>25.75171868037716</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>38.44318018500923</v>
+        <v>39.02701844583683</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>-3.960963522629172</v>
+        <v>-7.309711936213365</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>12.32420483626213</v>
+        <v>9.893469976788083</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>21.18162050161172</v>
+        <v>20.55024553524355</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>0.897028101934005</v>
+        <v>1.538546249789693</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>29.48352602350449</v>
+        <v>34.66435323772427</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>45.9404717653437</v>
+        <v>49.30358940758173</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>29.63817370499682</v>
+        <v>30.27396727782897</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>47.94030073698831</v>
+        <v>46.21940637036194</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>57.12377498501888</v>
+        <v>53.78444005160168</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>6.027267022344777</v>
+        <v>6.254650233716173</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>29.32055084534916</v>
+        <v>29.22825779052034</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>43.56438381791271</v>
+        <v>42.87616162936115</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>60.34527190469102</v>
+        <v>57.40966323656995</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>52.89901118988163</v>
+        <v>52.92429726038481</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>62.40489099144647</v>
+        <v>59.96031205928406</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>64.26358364708113</v>
+        <v>62.31106655459088</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>17.99271557270773</v>
+        <v>19.79499678639803</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>57.62531424393593</v>
+        <v>59.12214567771092</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>62.4324671788722</v>
+        <v>62.73281447471754</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.87658815142393</v>
+        <v>20.11784056717941</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>38.5313835866021</v>
+        <v>42.17301187129321</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>47.46472030038393</v>
+        <v>50.15348247735218</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>-0.06050281787873857</v>
+        <v>0.3925865657567442</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>42.75686134746132</v>
+        <v>42.22735754017506</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>47.33001256472643</v>
+        <v>46.6370343278377</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>11.04782086533451</v>
+        <v>10.19441602507393</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>65.22401182992078</v>
+        <v>67.46313836303679</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>75.19441996925786</v>
+        <v>74.57236987263305</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>74.56176577415111</v>
+        <v>76.43254092841785</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>84.36606252551215</v>
+        <v>81.89156620705543</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>91.11901914872574</v>
+        <v>88.33055369287888</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>27.12565154008469</v>
+        <v>28.12161596348989</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>77.46736549560745</v>
+        <v>78.75735054657514</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>83.88026431863216</v>
+        <v>82.98054865445722</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>62.63404384594959</v>
+        <v>60.37644380889233</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>50.46705986475186</v>
+        <v>47.4191160549549</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>57.13283501179733</v>
+        <v>51.32679433772172</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>63.01765998604064</v>
+        <v>60.07397294270754</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>13.50695483868773</v>
+        <v>11.01327526768404</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>54.26337963161909</v>
+        <v>53.1141559069011</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>61.54220642304258</v>
+        <v>60.82157520369547</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>12.39622847584226</v>
+        <v>13.05684610203223</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>36.08167673047918</v>
+        <v>37.40002373512091</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>45.78400006333704</v>
+        <v>47.47091761274179</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>-2.261561073614441</v>
+        <v>-4.850186179101726</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>42.68254433576464</v>
+        <v>39.69847607086834</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>49.0751851921802</v>
+        <v>47.6260503076808</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>9.281268120745455</v>
+        <v>6.506519075118742</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>65.95847337440094</v>
+        <v>66.26351609399853</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>77.43963209491216</v>
+        <v>76.28348324990702</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>75.88505197707687</v>
+        <v>74.85104020589337</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>84.47827566606534</v>
+        <v>78.19119079197213</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>93.36112476453846</v>
+        <v>90.61462354004303</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>22.79445095771784</v>
+        <v>17.44044258469904</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>77.87114283335296</v>
+        <v>74.9864266493601</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>85.93142894641011</v>
+        <v>82.54900448368949</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>54.61546204496894</v>
+        <v>51.47401008427326</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.41001013036127</v>
+        <v>29.14012676805548</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.94270214333565</v>
+        <v>36.1934235417251</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>45.34741910449993</v>
+        <v>43.97709841695891</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>7.357229653125831</v>
+        <v>5.737128894538824</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>39.32602055565604</v>
+        <v>42.9686303657565</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>50.42978026935323</v>
+        <v>52.84414025799963</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>7.45000624995269</v>
+        <v>8.257016054758697</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>33.28503066979242</v>
+        <v>36.78281314429849</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>46.95357567242702</v>
+        <v>50.52253587067749</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>-1.893906742182985</v>
+        <v>-3.899485673968691</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>37.14117810949392</v>
+        <v>36.55405251512231</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>48.37813641459671</v>
+        <v>49.59967893344263</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>5.581773980999355</v>
+        <v>4.847921847124031</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>56.72644538854378</v>
+        <v>60.66766985306666</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>74.80993846615313</v>
+        <v>76.76867283121157</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>57.40749441125747</v>
+        <v>61.70027591138968</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>73.82442790764213</v>
+        <v>73.55820581551937</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>88.02190463529712</v>
+        <v>87.99402266319299</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>11.38365210517627</v>
+        <v>11.39362102237994</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>62.77789712087683</v>
+        <v>68.55847665735392</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>78.58724904278567</v>
+        <v>82.63551777731803</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>8.246861136382776</v>
+        <v>8.301887338271708</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>13.34025406471977</v>
+        <v>11.53045563513783</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>22.70670089333798</v>
+        <v>23.14630053566046</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>-2.467779668001089</v>
+        <v>-2.460178434698154</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>14.07869242803926</v>
+        <v>12.56506805894214</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.79702534098049</v>
+        <v>16.54307344931552</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>4.195786490715843</v>
+        <v>4.556226551727359</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>25.94066841464682</v>
+        <v>30.50186155092889</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>31.58539446759495</v>
+        <v>34.73043454321684</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>18.41317486701715</v>
+        <v>19.29158201725492</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>25.75027003555887</v>
+        <v>24.61867678125206</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.53018806822658</v>
+        <v>27.06679083176238</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>8.350666819729931</v>
+        <v>7.463372222791147</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>13.98415395447637</v>
+        <v>15.36557557298666</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>25.59952363409583</v>
+        <v>28.70857267295636</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>12.03453466604308</v>
+        <v>11.44586154124625</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>27.04947277593838</v>
+        <v>26.47969777527167</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>32.52205801000098</v>
+        <v>32.68954056488531</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-2.925622453473377</v>
+        <v>-5.131377606366467</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>12.6274957120484</v>
+        <v>11.8746225871057</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>16.91245255161891</v>
+        <v>16.38266027016877</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>2.0257594655525</v>
+        <v>0.0107998138318699</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>29.42024857026921</v>
+        <v>30.35811348156994</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>8.864740823123185</v>
+        <v>9.780094531309288</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>17.86332864460035</v>
+        <v>20.25323539802538</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>25.21017076473225</v>
+        <v>26.44909974829547</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>-1.534024617889912</v>
+        <v>-0.8036195874818155</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>25.92616033427528</v>
+        <v>28.29020580464269</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.34981399645464</v>
+        <v>28.61806154817845</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>7.079296463924369</v>
+        <v>5.49166087492404</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>40.53216180443025</v>
+        <v>44.14782056838506</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>44.14366615764048</v>
+        <v>44.69283493098573</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>40.4837731596979</v>
+        <v>44.32118115656601</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>49.88721817050239</v>
+        <v>47.81903065017202</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>52.40188103459666</v>
+        <v>52.28513856587934</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>13.15363474297382</v>
+        <v>11.93294981841106</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>32.04839060127742</v>
+        <v>39.68393512062721</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>40.52416693971776</v>
+        <v>43.73081853099129</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>13.25830217440115</v>
+        <v>16.32188590672665</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>35.0185855296323</v>
+        <v>39.44864903939627</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>39.37086240415144</v>
+        <v>43.25347989505403</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>-1.182532424550335</v>
+        <v>-0.6285238041394656</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>34.6703926759362</v>
+        <v>35.87095028589077</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>39.52745072357185</v>
+        <v>39.15115052212168</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>7.127133190043715</v>
+        <v>6.724409502913108</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>54.97358753398176</v>
+        <v>55.9261465569176</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>4.060029711650238</v>
+        <v>4.107347006003785</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>13.66759351215706</v>
+        <v>15.53025901479936</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>21.7600417484449</v>
+        <v>23.26067283436717</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>-2.004557901356648</v>
+        <v>-2.367331079254647</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>25.15852782632792</v>
+        <v>26.49662179858783</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.84451100920829</v>
+        <v>30.27637183829864</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>7.583857755489493</v>
+        <v>5.291504306757066</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>40.96052292730972</v>
+        <v>43.57691579043231</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>45.93748864072712</v>
+        <v>47.23179791037839</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>42.29313810060761</v>
+        <v>47.53409766574164</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>49.82599020516203</v>
+        <v>48.48812851469863</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>55.45601483341362</v>
+        <v>58.3868748466712</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>9.329599172100094</v>
+        <v>3.018934070984621</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.80862133577216</v>
+        <v>31.97511965634003</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>38.38092699826571</v>
+        <v>38.51133640248634</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>9.932500024944209</v>
+        <v>11.5147023331061</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>32.66047370173458</v>
+        <v>34.61785035605985</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>38.02607707656969</v>
+        <v>41.45427305305572</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>-2.253945561375716</v>
+        <v>-2.441067010339228</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>32.53915065653572</v>
+        <v>33.66145458757863</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>41.10233823615877</v>
+        <v>41.85914740118291</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>6.76083405700679</v>
+        <v>7.054697237236166</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>53.95898179015957</v>
+        <v>55.72168595346334</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>1.123980709142558</v>
+        <v>-2.067039164210087</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>9.722194405827052</v>
+        <v>9.665498214924641</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>21.5208369905007</v>
+        <v>22.68050969376709</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>-2.356566883634798</v>
+        <v>-3.692797112533576</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.57710779035694</v>
+        <v>20.9768719626052</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>29.52572277904988</v>
+        <v>30.82835936813711</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>4.172278688036105</v>
+        <v>1.639683839861956</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>33.17347253278083</v>
+        <v>37.11905431751598</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>44.25961436243001</v>
+        <v>46.27260806383592</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>31.88148821559684</v>
+        <v>41.29454425666718</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>38.5270601772218</v>
+        <v>44.42074263246859</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>45.43848083246069</v>
+        <v>54.04240153741068</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>6.064062929323661</v>
+        <v>0.4560628944441127</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>22.26844543822546</v>
+        <v>23.96375470698004</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>38.49621881759649</v>
+        <v>40.98925493567911</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>6.557475324750833</v>
+        <v>5.950741141507375</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>29.05546463763095</v>
+        <v>29.28995202777391</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>36.05252402794359</v>
+        <v>37.98121966536035</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>-2.091015648501486</v>
+        <v>-2.994108440638815</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>25.56480648959636</v>
+        <v>26.20305248484397</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>36.82612129849095</v>
+        <v>36.39285240808006</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>4.193446175110545</v>
+        <v>3.819221748805735</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>43.75414125071322</v>
+        <v>45.9090850300723</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>36.40369372363077</v>
+        <v>37.0507605018582</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.01809766766639</v>
+        <v>29.64884117459082</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>41.3885351643887</v>
+        <v>43.04767419755783</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>43.82124315273599</v>
+        <v>42.53501987884522</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>8.512366011058472</v>
+        <v>7.618454688677232</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>25.75450178104332</v>
+        <v>28.55632772600785</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.25085622757676</v>
+        <v>35.81399478263936</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.51623314776978</v>
+        <v>13.17759626847492</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.91673957259744</v>
+        <v>27.15077557796134</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>40.4686798161005</v>
+        <v>40.01179478324444</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>-4.386973999685047</v>
+        <v>-9.589329365164783</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>13.33648802178243</v>
+        <v>10.12155734334951</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>21.97908174525338</v>
+        <v>19.87561315574219</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>0.4710173731366645</v>
+        <v>-1.195922748786625</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>30.98871944781591</v>
+        <v>35.00823890952076</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>47.75624081681822</v>
+        <v>48.78236518028122</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>32.33120083549839</v>
+        <v>35.33558038068963</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>51.86154932722228</v>
+        <v>53.59192572973627</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>59.78343172051584</v>
+        <v>56.92343324967806</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>5.536923478449175</v>
+        <v>4.693949586758063</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>31.80813131232223</v>
+        <v>32.51875404278981</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>45.55077530237303</v>
+        <v>44.76741019414975</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>63.54778876922643</v>
+        <v>62.04534979347547</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>56.49089638752424</v>
+        <v>59.35936980747226</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>66.95228262606912</v>
+        <v>67.42591206227411</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>68.4195562037344</v>
+        <v>67.32914222348509</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>18.12776714151444</v>
+        <v>18.67831274133152</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>62.31601885866604</v>
+        <v>64.22735941292895</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>66.56706188269223</v>
+        <v>66.87650553510746</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.75271858657211</v>
+        <v>18.99542008307359</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>40.75100980554122</v>
+        <v>44.9047555018748</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>50.2728195230552</v>
+        <v>51.79733597448761</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>-0.2888670535678592</v>
+        <v>-0.4736016382390495</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>45.87025575522259</v>
+        <v>46.48732271529322</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>49.88692202494528</v>
+        <v>49.18955907183081</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>10.99253045906285</v>
+        <v>7.910847697129537</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>68.89876630519157</v>
+        <v>70.6529446118773</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>78.85532403219761</v>
+        <v>76.02931632964081</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>78.92984909431281</v>
+        <v>82.55224615377428</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>89.71908504781649</v>
+        <v>90.61430449277401</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>94.47402530549623</v>
+        <v>91.99534113113455</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>27.26181727183506</v>
+        <v>26.08652721613992</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>82.84023653734715</v>
+        <v>84.26458232437565</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>88.69043920810086</v>
+        <v>86.44514053394637</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>66.19764912151942</v>
+        <v>66.54272515626332</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>54.43231284615493</v>
+        <v>55.53537598797594</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>62.28183429529678</v>
+        <v>60.69339381345593</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>67.60616150229289</v>
+        <v>66.70899177289078</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>13.77697764190095</v>
+        <v>11.40963460466863</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>59.30758963315382</v>
+        <v>59.96177119619135</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>65.96918309910333</v>
+        <v>66.43121551574561</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>13.26998969191701</v>
+        <v>12.66749890819085</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>38.45763588614575</v>
+        <v>41.42334902219822</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>48.70907535198612</v>
+        <v>49.97482827211351</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>-2.383325571953534</v>
+        <v>-4.223512508057443</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>46.15074885276299</v>
+        <v>46.20689955994285</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>51.86968331622246</v>
+        <v>51.89124151654624</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>9.563119861514656</v>
+        <v>5.649218378667488</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>70.21882618256103</v>
+        <v>71.54628757657575</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>81.59546602648339</v>
+        <v>79.32867206892001</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>80.65694454881924</v>
+        <v>82.56709732862259</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>90.23604732025966</v>
+        <v>88.83977068921516</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>96.97846397873627</v>
+        <v>95.79277168895584</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>22.92144476530482</v>
+        <v>16.71119340452336</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>83.63714984442925</v>
+        <v>82.58110619011462</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>91.10926475964783</v>
+        <v>87.59257600041641</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>58.77897358701076</v>
+        <v>58.34889665026017</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>32.66056348619833</v>
+        <v>38.28287447386434</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>43.08026194481745</v>
+        <v>46.67158272921314</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>50.55648170853205</v>
+        <v>52.17517095954311</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>8.389756927202459</v>
+        <v>7.760098822634069</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>44.21050608228185</v>
+        <v>50.31576606441459</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>55.49607877097462</v>
+        <v>58.88089713930945</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>7.706755892676384</v>
+        <v>8.181793803198275</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>35.25005480028091</v>
+        <v>40.22915315222748</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>49.14184379958879</v>
+        <v>52.73255550843343</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>-1.972570329293053</v>
+        <v>-4.077030262673727</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>39.83123578247174</v>
+        <v>40.90343201059169</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>50.71983739460622</v>
+        <v>52.01893943850359</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>5.926461480585406</v>
+        <v>3.660249822095025</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>60.22832174504467</v>
+        <v>64.41138276247948</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>78.45559916948812</v>
+        <v>78.63767836901297</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>61.82219310294463</v>
+        <v>69.23639961167463</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>79.30918813378133</v>
+        <v>84.19823638063527</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>92.12911049060244</v>
+        <v>93.42400473617869</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>11.24660151340202</v>
+        <v>11.14091270967795</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>67.25207857738276</v>
+        <v>75.34481412133491</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>82.41757889553121</v>
+        <v>86.94262205027999</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>11.86961246424865</v>
+        <v>13.75262463903042</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>12.72137687828178</v>
+        <v>11.21058715436957</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>22.0916454893342</v>
+        <v>19.49442929222283</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>2.812210843502427</v>
+        <v>5.895024840321092</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>11.2338271149129</v>
+        <v>14.76695090646573</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>15.79558400086765</v>
+        <v>16.47913382581444</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>4.831431199412592</v>
+        <v>2.492063822385937</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>20.26590705468091</v>
+        <v>20.07211716983446</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>25.8705894003349</v>
+        <v>21.2434491020397</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>10.26936323576115</v>
+        <v>5.106202575695686</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.64167027649208</v>
+        <v>8.335288003726554</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>15.94432135868011</v>
+        <v>9.292843578570807</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.740919731704285</v>
+        <v>13.34585685848741</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>9.803406361688056</v>
+        <v>9.336883149475435</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.11740749838444</v>
+        <v>17.06468392220305</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>9.492234086805963</v>
+        <v>12.28621234527241</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>15.51459028920513</v>
+        <v>12.3231891819962</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>22.85922201496435</v>
+        <v>20.18038773037849</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>4.518507047167638</v>
+        <v>12.13448299713194</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>5.059887349578609</v>
+        <v>5.951986808247884</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>10.31819759592188</v>
+        <v>11.78866736470061</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>-0.6181099174224656</v>
+        <v>-1.537342913374925</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>7.582615373277928</v>
+        <v>5.974752213354193</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>15.0799429569115</v>
+        <v>16.15115855051763</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.01387602334256</v>
+        <v>19.22544546471864</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>27.89954801673134</v>
+        <v>22.69211789960906</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>2.767389313550535</v>
+        <v>3.462170532937915</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>25.39216777470921</v>
+        <v>24.80541154275354</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.129612877274</v>
+        <v>24.41537929364482</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>7.432284312075865</v>
+        <v>4.787001388697629</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>39.38225327301315</v>
+        <v>33.48826827807032</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>40.37132963632209</v>
+        <v>32.47696188807929</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>36.25904918482281</v>
+        <v>33.00758671881817</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>42.73181842624317</v>
+        <v>37.96040544393553</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>46.27350230671142</v>
+        <v>40.64745640257753</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>21.42454651505402</v>
+        <v>24.24828029727187</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>34.68632444089884</v>
+        <v>38.34237648026183</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>42.68640900186534</v>
+        <v>40.62089516344264</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.26435670221682</v>
+        <v>11.82326688794523</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>20.43297643199617</v>
+        <v>16.58295646882994</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>25.34590894678643</v>
+        <v>22.32836627490506</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>4.84697234102088</v>
+        <v>8.479349658636842</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>17.28899412179067</v>
+        <v>17.5648445828995</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.44528160410317</v>
+        <v>25.11910937252084</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.27288543300032</v>
+        <v>23.93229410665526</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>11.41358706652385</v>
+        <v>13.85931199824582</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>22.18911841886315</v>
+        <v>19.20523149365415</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.42843135726842</v>
+        <v>23.20779808369277</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>1.973291239030349</v>
+        <v>3.201743501766398</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.69284814318398</v>
+        <v>25.78084304497767</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.37693248349855</v>
+        <v>28.15465075513579</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>8.395440030293425</v>
+        <v>8.045434896171709</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>42.63049908073995</v>
+        <v>37.91127117909909</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>44.56926352185587</v>
+        <v>39.23592982143802</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>38.28952185114058</v>
+        <v>37.37744334384471</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>44.02408282239293</v>
+        <v>40.74378309958558</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>49.11688274440962</v>
+        <v>47.44408169669839</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>16.95840610320093</v>
+        <v>17.10292439159512</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>33.58654760534741</v>
+        <v>33.88553971170862</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>42.0375059437721</v>
+        <v>39.17935402197256</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>10.04065495591843</v>
+        <v>9.339245826487819</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>20.23074357417786</v>
+        <v>14.61517576810842</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>25.58040253002481</v>
+        <v>22.111025558483</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>4.65942872896558</v>
+        <v>6.459281342132574</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>17.42427071192112</v>
+        <v>15.87924342928941</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>29.53903757076365</v>
+        <v>27.9236912339866</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>5.45167212255582</v>
+        <v>3.282436765540471</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>31.46993152150143</v>
+        <v>26.31719424858537</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>5.575628913691819</v>
+        <v>4.121452646388502</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>12.42820073345781</v>
+        <v>11.46353709847999</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>21.07298772200442</v>
+        <v>18.74709602051663</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>1.051585631131704</v>
+        <v>1.994355784383984</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>19.86626232508143</v>
+        <v>21.60058682018302</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.93962929369404</v>
+        <v>28.1225548121964</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>2.73229027900291</v>
+        <v>-0.4663398652811281</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>30.54624073525238</v>
+        <v>28.2430139555311</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>38.44016155909816</v>
+        <v>32.81717502408258</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.66036241778131</v>
+        <v>24.59001382639996</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.53678550045622</v>
+        <v>27.02997283457987</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>34.03227368486556</v>
+        <v>31.91750708866657</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>8.264490930948387</v>
+        <v>8.587676012794731</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>21.1754241566589</v>
+        <v>20.25099585704108</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>38.90334777225441</v>
+        <v>33.67375622792033</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>4.743972678264157</v>
+        <v>4.798980420264808</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>16.38692876860367</v>
+        <v>13.92638900725077</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>24.79363550594035</v>
+        <v>22.62479141052727</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>4.622130848238584</v>
+        <v>8.969589439309363</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>15.18047837222603</v>
+        <v>15.48640954664158</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>29.02523975509629</v>
+        <v>27.95996031283777</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>1.830995333391765</v>
+        <v>0.6176526223947185</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>23.17389319722499</v>
+        <v>21.08225921103382</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>14.69924970093703</v>
+        <v>13.60739773872249</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>9.396822181713647</v>
+        <v>6.350779702682892</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>22.7955885756255</v>
+        <v>19.71071263011318</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.17437592460821</v>
+        <v>23.14831593379056</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>2.968545731391877</v>
+        <v>4.107612164954229</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>8.278388482359684</v>
+        <v>4.575985586428917</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>14.67608614240753</v>
+        <v>7.40948830306713</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>10.10162858212848</v>
+        <v>13.84113532746772</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>15.35450440441029</v>
+        <v>14.01676526297575</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>27.96218279467112</v>
+        <v>23.98882885535971</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>3.275497921239481</v>
+        <v>10.68273885695173</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>6.146114433527401</v>
+        <v>6.085670048360448</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>15.41071491878229</v>
+        <v>13.40431852575543</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>0.5776921042148793</v>
+        <v>0.6679838458911895</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>14.25692205639749</v>
+        <v>12.41959423260909</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>29.66789833082405</v>
+        <v>26.16154622847177</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>15.65092885447853</v>
+        <v>12.54249400109114</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>36.08414967241195</v>
+        <v>29.64534711141689</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>45.80011249398725</v>
+        <v>39.25008239850271</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>2.813920530893839</v>
+        <v>4.141134352460575</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>11.29376099933049</v>
+        <v>6.936933467329741</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>27.06467815373646</v>
+        <v>16.34088755114277</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>38.51112933040606</v>
+        <v>33.46308733711978</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>32.18458219886627</v>
+        <v>29.04971922604893</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>42.52977998320934</v>
+        <v>36.66602784486433</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>46.9412180730572</v>
+        <v>43.11619632114054</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>14.25036460532768</v>
+        <v>15.06399811857627</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>37.1102853712072</v>
+        <v>34.14013603798514</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.77562046625484</v>
+        <v>35.48967756456473</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>16.80555797155757</v>
+        <v>19.40882073894711</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.39481744300867</v>
+        <v>27.51776674662922</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>38.02944693860084</v>
+        <v>35.44778863219749</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>6.088318242949157</v>
+        <v>12.48747631457515</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>30.16461151840737</v>
+        <v>29.64222136490533</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>38.11395832283632</v>
+        <v>36.42602358150448</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>9.026164915371631</v>
+        <v>9.488407417545929</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>48.59460133452476</v>
+        <v>42.90307953797964</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>58.18819349912713</v>
+        <v>54.63708060319481</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>63.41101451627023</v>
+        <v>60.11171642942985</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>70.34320312748793</v>
+        <v>65.96248965155105</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>77.46047006921667</v>
+        <v>74.53451907021359</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.05462397884182</v>
+        <v>27.22019231422218</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>57.89569833244273</v>
+        <v>53.86122592901694</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>65.22224897029835</v>
+        <v>61.63834086074617</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>44.23104070058869</v>
+        <v>39.90390754267716</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>30.89489846553302</v>
+        <v>24.32654271645535</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>38.16119818571644</v>
+        <v>28.8385870671155</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.32301969774168</v>
+        <v>41.49251565418267</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>12.14793793068403</v>
+        <v>8.668975834410496</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>37.7203833863701</v>
+        <v>30.46236192447662</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>43.72372971930355</v>
+        <v>35.89959946503291</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>14.45966776181451</v>
+        <v>16.28977977179952</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.34714009514886</v>
+        <v>26.55875235986531</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.53527582105985</v>
+        <v>36.40923660686433</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>5.368857379627503</v>
+        <v>9.891527156422814</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.05946318987171</v>
+        <v>29.73549609164538</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>41.91528125773944</v>
+        <v>40.80352745252424</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>9.709086255170638</v>
+        <v>9.852100513250786</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>52.83260785855192</v>
+        <v>45.9490389548892</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>63.60186568626169</v>
+        <v>61.04058857971911</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>66.47211893877073</v>
+        <v>60.38122598378968</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>70.29145308040339</v>
+        <v>63.32694131119013</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>80.40863364796652</v>
+        <v>77.80426878656839</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>23.7838599552525</v>
+        <v>18.29066065235769</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>59.67164559123252</v>
+        <v>50.2518733826916</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>69.52210141057191</v>
+        <v>63.69773965953965</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>38.51210506124771</v>
+        <v>34.57442954327991</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>14.26263036702991</v>
+        <v>10.63024855290046</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.74630280425235</v>
+        <v>18.25402418956009</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>34.22537640092588</v>
+        <v>29.13031446950314</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>6.919261191686669</v>
+        <v>5.373021573274592</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>30.73174663876634</v>
+        <v>25.75950632188269</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>41.08830601566338</v>
+        <v>32.20193925821351</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>10.0142436137473</v>
+        <v>10.90220830876417</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.46762002385332</v>
+        <v>25.9796894588218</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>39.89639465252311</v>
+        <v>39.31310338746539</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>5.283433222219532</v>
+        <v>11.68066172419011</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.6290505651925</v>
+        <v>27.51704760882196</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>43.40737805404541</v>
+        <v>43.57452142283831</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>4.952482257283268</v>
+        <v>5.073549676430886</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>41.1512471658359</v>
+        <v>37.66626222829883</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>60.80079780364527</v>
+        <v>58.115529572646</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>42.82197199378141</v>
+        <v>42.02691023004132</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>57.14704527984162</v>
+        <v>52.47232522770673</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>75.99634262158506</v>
+        <v>73.26432801935245</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>8.636365286061356</v>
+        <v>8.422213754974315</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>39.34150895742738</v>
+        <v>38.34059944668765</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>61.4257886718316</v>
+        <v>58.55182437227025</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>11.1627564463697</v>
+        <v>12.39699415151348</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>12.67154114197959</v>
+        <v>12.12437556557356</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>22.70470167706391</v>
+        <v>23.03122787315725</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>5.455882235827723</v>
+        <v>7.875090055606417</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>16.6844123598776</v>
+        <v>21.67949450816146</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>21.86333149942746</v>
+        <v>24.8980816219342</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>6.265804891740899</v>
+        <v>3.320522827958992</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.88941540630584</v>
+        <v>25.73008645375364</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>30.00835769560453</v>
+        <v>28.67154690575587</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>11.83571518689832</v>
+        <v>9.749094799804372</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>15.20487267965384</v>
+        <v>12.92678145475054</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>17.72907325642937</v>
+        <v>15.37982600677608</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>9.830088482565118</v>
+        <v>11.94213782006834</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>10.12600238476168</v>
+        <v>11.37903763146021</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.67252279409465</v>
+        <v>21.36601301404411</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>12.57463528508857</v>
+        <v>16.80819259616024</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>20.87012280943069</v>
+        <v>22.76817805914062</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>27.64921885450863</v>
+        <v>30.69132788249316</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>8.125984998655369</v>
+        <v>16.62458057599325</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>12.87999482775765</v>
+        <v>19.4045579939561</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>17.67848595625994</v>
+        <v>24.27057024227562</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>4.18355349043685</v>
+        <v>5.163767519754284</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>16.71961820854288</v>
+        <v>21.63606462994019</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>13.61939239975643</v>
+        <v>14.10909375499523</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.87823957801435</v>
+        <v>20.18729258106687</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>27.06339284859056</v>
+        <v>24.84522865657003</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>5.130002268082951</v>
+        <v>3.914532570078261</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.0588872069618</v>
+        <v>31.21994260047171</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>30.88614355549648</v>
+        <v>30.71264268234328</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>8.142967048359882</v>
+        <v>3.846672990919686</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>41.64786475334485</v>
+        <v>38.2652826283688</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.84267662336075</v>
+        <v>37.4789725088644</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>36.2659675608307</v>
+        <v>36.04941648457199</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>42.3803495928423</v>
+        <v>40.05543054732334</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>45.58778934787318</v>
+        <v>43.45597360043202</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>19.54080977319787</v>
+        <v>19.60962270771749</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>32.47639311754017</v>
+        <v>38.4135755373951</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>41.25577348323419</v>
+        <v>40.87052682584828</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>13.44123673547958</v>
+        <v>18.45628696728908</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>25.3476742789245</v>
+        <v>30.0281935324553</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.62555035289988</v>
+        <v>34.10318726294978</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>8.398321476514344</v>
+        <v>14.30688225306968</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.53777774658213</v>
+        <v>33.69581046181732</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>33.72137362459188</v>
+        <v>38.21931143213455</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>38.29003214181944</v>
+        <v>41.65528067259405</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>9.270942822099709</v>
+        <v>10.56599885200906</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>20.46094640936457</v>
+        <v>19.29394112175509</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>24.99767106998583</v>
+        <v>24.22184052551231</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>3.927362672021651</v>
+        <v>2.61879660008918</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.81187606202212</v>
+        <v>31.55699258321283</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>32.50986171967991</v>
+        <v>33.55016524317895</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>8.50959376785195</v>
+        <v>5.912938477543584</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>44.20790609760158</v>
+        <v>41.85495252572643</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>46.29230482587471</v>
+        <v>43.13519963643834</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>38.20591615199218</v>
+        <v>39.80126461718311</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>43.79521077010726</v>
+        <v>42.30926260906207</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>48.33852398034817</v>
+        <v>49.7788956877061</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>14.63438412703385</v>
+        <v>11.00569102291478</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>30.93845815135003</v>
+        <v>32.96891111121202</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>40.07151895405319</v>
+        <v>38.20165104543204</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>11.81231080045477</v>
+        <v>15.74001906954038</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>24.7833084554962</v>
+        <v>28.30889498125437</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.41655431175313</v>
+        <v>33.76542138073441</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>7.930972483534614</v>
+        <v>12.41270445010911</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.45611125178498</v>
+        <v>32.70039374238897</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>36.49054080059787</v>
+        <v>41.28287355828363</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>9.483217872760871</v>
+        <v>10.77265153629671</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>40.96821891945333</v>
+        <v>44.45134392484855</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>4.392999022533473</v>
+        <v>1.711980657334628</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>12.1729287006537</v>
+        <v>12.09416157925059</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>21.35906887312473</v>
+        <v>21.36612473333662</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>3.600173214586629</v>
+        <v>3.627076739187761</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>25.05461959446023</v>
+        <v>29.08348625110429</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>32.56199676327329</v>
+        <v>36.42622206789571</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>4.51076355078763</v>
+        <v>-0.1352442432555847</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>34.39226140192741</v>
+        <v>34.23003693934207</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>42.55571350370937</v>
+        <v>39.87572934542501</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>25.89269618866291</v>
+        <v>30.06909204787209</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>30.85938029501584</v>
+        <v>32.77346113873255</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>36.38442911716694</v>
+        <v>39.21914876796322</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>7.625164409049159</v>
+        <v>5.880993636568505</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>20.53939120295745</v>
+        <v>22.09399692315624</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>39.78561398718546</v>
+        <v>37.16661208138657</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>8.00956007656346</v>
+        <v>9.478239126605482</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>22.43349299899026</v>
+        <v>25.6530700844007</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>29.42362126512673</v>
+        <v>33.22142148593989</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>8.057022503697294</v>
+        <v>13.98985436278615</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>23.62611648235204</v>
+        <v>30.86023652976748</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>36.16621771748</v>
+        <v>40.91347960497518</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>6.287691068730457</v>
+        <v>7.271539325341568</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>32.55092137298521</v>
+        <v>37.98557931439453</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>23.62954424316249</v>
+        <v>28.88577339290083</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>17.79350649554522</v>
+        <v>20.93842121142216</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>32.50497379422383</v>
+        <v>36.98124222076329</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>37.87766558482197</v>
+        <v>41.18048763148751</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>7.297362650056325</v>
+        <v>11.14842689090718</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>15.84254112129724</v>
+        <v>19.53946005632558</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>22.24494771554436</v>
+        <v>22.42192021942108</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>8.35256328845249</v>
+        <v>13.36623050087784</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>15.79533913236054</v>
+        <v>18.12430105880897</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>29.56373562041176</v>
+        <v>30.7979834732761</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>6.239117892447517</v>
+        <v>13.12707271069129</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>12.05401629925498</v>
+        <v>15.96834281777902</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>22.09816896553366</v>
+        <v>25.0920719979674</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>2.658078847461635</v>
+        <v>3.650454254398152</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>18.92683683112279</v>
+        <v>22.73854804237148</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>35.74261314593366</v>
+        <v>38.79447044705779</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>20.0877545463014</v>
+        <v>22.95011947766631</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>42.85112228555644</v>
+        <v>46.12830024579111</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>52.89934619240083</v>
+        <v>57.0650197655997</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>5.057038788105853</v>
+        <v>5.30162703330036</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>16.76896160326801</v>
+        <v>18.79248662029716</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>32.23274716153417</v>
+        <v>29.10740740706591</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>46.92802599331131</v>
+        <v>48.81787117445735</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>41.52559904275645</v>
+        <v>46.17000937613771</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>52.09371298504368</v>
+        <v>54.40372868077941</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>56.0163841583613</v>
+        <v>60.75056859952127</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>17.57486239923544</v>
+        <v>22.1978565595803</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>44.51806987678121</v>
+        <v>50.71004485131949</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>48.41422595121028</v>
+        <v>49.61420289494045</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>13.50005288793201</v>
+        <v>18.76195264202497</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.64386750936625</v>
+        <v>33.20093457068018</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>37.98586658348356</v>
+        <v>42.33517631872286</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>8.404909005030333</v>
+        <v>14.17494481234428</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>36.41630607667062</v>
+        <v>40.99893760838742</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>44.05286454660634</v>
+        <v>47.84650447588838</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>8.971563337594233</v>
+        <v>10.41957455179817</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>52.20651322817044</v>
+        <v>53.20559091598167</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>62.14017733470794</v>
+        <v>65.58299793776132</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>65.07735939997644</v>
+        <v>69.15829789693153</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>73.25202357618072</v>
+        <v>79.80641934504962</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>80.3205713736575</v>
+        <v>88.61973888260844</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>24.12107999863932</v>
+        <v>24.50689467235077</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>60.98247242718035</v>
+        <v>64.90600571985725</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>67.08692989697497</v>
+        <v>71.50156966166877</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.97514463363405</v>
+        <v>55.23411738156194</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>39.98597196364032</v>
+        <v>41.86086074240268</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>47.37711863529708</v>
+        <v>46.79348158947811</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>54.7550457332232</v>
+        <v>59.27695369180658</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>14.82888593741059</v>
+        <v>15.33491172634286</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>44.53608006747817</v>
+        <v>47.20357306124753</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>11.17445338015255</v>
+        <v>15.32299126470393</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.57426169664838</v>
+        <v>32.34746327921465</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>38.29692249128561</v>
+        <v>43.05398520427937</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>7.677271866185698</v>
+        <v>11.51416580857218</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>38.04512356289686</v>
+        <v>41.49380868592272</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>47.60749204831784</v>
+        <v>52.26661670313595</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>9.498740256100707</v>
+        <v>10.35787674159675</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>56.0531934926512</v>
+        <v>56.24238527814748</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>67.05112846028209</v>
+        <v>71.60539856031592</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>67.82084168221959</v>
+        <v>69.31759231458555</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>72.68848331196511</v>
+        <v>76.91248180397217</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>82.67065420100198</v>
+        <v>91.416489476447</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>21.52965937975083</v>
+        <v>15.11292930657557</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>62.40687042766323</v>
+        <v>61.35734858891196</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>70.98133991908574</v>
+        <v>73.31224133872317</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>46.75706625654571</v>
+        <v>49.67201609681847</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>22.73187969172784</v>
+        <v>26.5350669904034</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>32.18053033263666</v>
+        <v>36.59132021990276</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>43.1387002108834</v>
+        <v>47.77489876691384</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>10.30735953282634</v>
+        <v>11.96436702113954</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>37.60343464483359</v>
+        <v>41.83881959581895</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.5632112586857</v>
+        <v>46.81175121662828</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>8.437226860235725</v>
+        <v>10.77206432746818</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.29539657256728</v>
+        <v>31.40375715951677</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>41.08099043048231</v>
+        <v>46.55540009714008</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>7.903415380748459</v>
+        <v>14.95251421929372</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>33.81812638709263</v>
+        <v>39.35231471979299</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>49.2517533675879</v>
+        <v>56.23077981073861</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>6.46359266219887</v>
+        <v>7.901321270569134</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>44.90104081869123</v>
+        <v>48.8516859465457</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>65.52990927629548</v>
+        <v>70.62420685878735</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>45.69233016971711</v>
+        <v>53.06118701412444</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>61.97801998789677</v>
+        <v>69.7216871939977</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>81.18302158941682</v>
+        <v>91.28889247597905</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>9.656851572841136</v>
+        <v>9.508670327370776</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>43.85583957897886</v>
+        <v>51.69354098982983</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>65.07702028139737</v>
+        <v>71.69112201775039</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>9.878747385752602</v>
+        <v>6.54568844714348</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>10.00702650821165</v>
+        <v>2.100663747768909</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>18.03739189096571</v>
+        <v>14.04662322221205</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>6.529755456524736</v>
+        <v>4.978524964543798</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>16.23844467125917</v>
+        <v>13.75593391198521</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>18.9823180673978</v>
+        <v>17.50729082558282</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>8.606613129716486</v>
+        <v>3.436347106791143</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>20.60694313696048</v>
+        <v>20.43810815228915</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>24.93573306036841</v>
+        <v>24.07168955979279</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>13.61067301278658</v>
+        <v>4.649480389703196</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>16.92581672334955</v>
+        <v>5.809360077494372</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>18.05911557295027</v>
+        <v>11.15974701055039</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>12.83665776412976</v>
+        <v>11.94361296247691</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>11.68013314986191</v>
+        <v>5.960999171197489</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>23.08578981094836</v>
+        <v>21.08674768478151</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>17.03835053012806</v>
+        <v>16.93875615927383</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.05699709042172</v>
+        <v>27.32932648531715</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>29.03464994026382</v>
+        <v>31.61818318557118</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>6.699184161063144</v>
+        <v>6.635408964875065</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>18.86866401950879</v>
+        <v>20.14311218291461</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>19.89490590701191</v>
+        <v>20.89304535373756</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>11.09403767670208</v>
+        <v>8.491523917879814</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>30.78972061615783</v>
+        <v>33.62349269499273</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>9.820243024342663</v>
+        <v>8.024693497137207</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>12.01689797817476</v>
+        <v>6.787925174979371</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>18.60483345633376</v>
+        <v>13.03340884580359</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>5.570112118532499</v>
+        <v>2.32070168278204</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>19.98744966059474</v>
+        <v>19.79446398887509</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>21.51989477562253</v>
+        <v>19.34474225572359</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>9.121460520211915</v>
+        <v>1.931629926165009</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>27.303269674726</v>
+        <v>26.52697256084868</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>29.75847960811375</v>
+        <v>25.99348545899704</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.087817781642</v>
+        <v>20.96324250648807</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>29.85856041143128</v>
+        <v>20.51723857892485</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.21531789437016</v>
+        <v>26.67435130459679</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>16.0003100237586</v>
+        <v>13.25630797845339</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>20.61673511097623</v>
+        <v>20.56311496921539</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>29.97509327213109</v>
+        <v>26.01149190438356</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>18.24226643792033</v>
+        <v>22.91655755956862</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>30.01902214256605</v>
+        <v>37.02126241679366</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>31.01230474508038</v>
+        <v>37.14306647570648</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>7.346369507584523</v>
+        <v>9.221694674273111</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>31.81113112523661</v>
+        <v>36.24411977519319</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>31.78550570131653</v>
+        <v>33.93569954873057</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>14.55394816294255</v>
+        <v>13.6419687934554</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>46.86366338933628</v>
+        <v>51.83835579661336</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>7.104370841041504</v>
+        <v>3.732316393317554</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>10.23278130286534</v>
+        <v>3.976268051321281</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>17.25274697485342</v>
+        <v>10.91657809866166</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>5.000616775218095</v>
+        <v>0.2808754114901788</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>19.59464618302438</v>
+        <v>18.10929608149987</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>21.71157830136953</v>
+        <v>20.09983896979384</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>9.49333571458444</v>
+        <v>1.690775719196115</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>28.12336507044209</v>
+        <v>26.55844112871472</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>31.3013554775545</v>
+        <v>28.17423490733031</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>27.7493456414685</v>
+        <v>23.75164553018379</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>30.67142170420905</v>
+        <v>21.51865838662169</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>34.89952998498075</v>
+        <v>31.96529698119565</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>13.16048207687177</v>
+        <v>4.412949724254947</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>18.82958034721307</v>
+        <v>13.61995928077934</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>28.96556824866232</v>
+        <v>21.09013292406813</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>16.6355997801718</v>
+        <v>19.64116288812274</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>29.11951618941721</v>
+        <v>34.22380505192465</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>30.48621389084258</v>
+        <v>35.85917378479638</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>6.790891219548758</v>
+        <v>7.675919465494252</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>31.00023032336574</v>
+        <v>34.92715531955287</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>32.75177940528869</v>
+        <v>35.7988217550261</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>14.79295874761893</v>
+        <v>14.32845765518502</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>47.10689675417154</v>
+        <v>52.63593249616851</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>5.154040556239675</v>
+        <v>-4.127014030122165</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>8.18705353280464</v>
+        <v>-1.095848504142886</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>17.46062204222872</v>
+        <v>10.26521413607539</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>5.166209686565942</v>
+        <v>-0.2101560311207251</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>18.78626759942458</v>
+        <v>16.62753531080217</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>24.07232087205321</v>
+        <v>23.81289370739792</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>7.922078939779961</v>
+        <v>-2.961513061536184</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>24.84650516157661</v>
+        <v>22.20430280493603</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>32.01777719278019</v>
+        <v>28.4181101080719</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>21.9643792206395</v>
+        <v>20.21608489385869</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>25.09927572686837</v>
+        <v>19.37702378379564</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>30.16269698342261</v>
+        <v>29.81454689817107</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>10.05543370804603</v>
+        <v>1.069711688789493</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>14.82181281234304</v>
+        <v>7.98383521112147</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>30.70392422039258</v>
+        <v>25.87127898007245</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>14.51390912147554</v>
+        <v>11.21572352488223</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>28.73078149610863</v>
+        <v>29.4009074057869</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>31.27533172311185</v>
+        <v>32.70721893047902</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>6.957218170814965</v>
+        <v>5.649532297346727</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>28.2654855727972</v>
+        <v>30.3945253178815</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>31.85948189346523</v>
+        <v>32.85324335858613</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>12.86383440556684</v>
+        <v>8.859037236991711</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>41.87985588563939</v>
+        <v>45.00885470765542</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>33.23568420689487</v>
+        <v>36.35512548197608</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>25.96178786911652</v>
+        <v>29.56766208891025</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>37.71392765323243</v>
+        <v>41.83458128449212</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>38.55510102945676</v>
+        <v>42.41252577711154</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>16.47333185962177</v>
+        <v>20.34954263288313</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>28.44053304103554</v>
+        <v>31.61186169197786</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>32.65459989935869</v>
+        <v>33.95784780029944</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>16.94944365671238</v>
+        <v>17.4065330796509</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>25.20034746242596</v>
+        <v>25.84669158540628</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>36.91618257554629</v>
+        <v>40.5258166116076</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>5.682539452363965</v>
+        <v>2.998196538794573</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>19.73271386693208</v>
+        <v>17.90110901257691</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>25.52807738466758</v>
+        <v>27.89955573458553</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>9.475019385599955</v>
+        <v>8.265806975065921</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>31.07453948016429</v>
+        <v>37.40956806214369</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>42.55837265747691</v>
+        <v>51.41352839937355</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>30.12683790085261</v>
+        <v>33.36883531996536</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>45.02254552900161</v>
+        <v>52.30713057255346</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>50.60910942326559</v>
+        <v>57.79849889425645</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>13.76535202204409</v>
+        <v>14.54985314316979</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>30.33328802591753</v>
+        <v>34.60438759581081</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>39.94004321564509</v>
+        <v>44.0934220013785</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>48.79221575860034</v>
+        <v>52.07857646510583</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>46.65932839953462</v>
+        <v>53.17894872158152</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>53.03798504757161</v>
+        <v>57.86571570161318</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>53.36664441411261</v>
+        <v>58.90531363588386</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>24.15733038949211</v>
+        <v>30.41069653351557</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>50.50986689870302</v>
+        <v>58.34798616627776</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>50.18529931859305</v>
+        <v>53.79833254688434</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>19.22417449223039</v>
+        <v>23.38775500089926</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>8.217891254974791</v>
+        <v>9.702606927959458</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>40.83299487838257</v>
+        <v>45.62512188967071</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>42.67417021919204</v>
+        <v>49.63328171292396</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>16.12359857848383</v>
+        <v>14.95547211431475</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>56.35182278846908</v>
+        <v>64.51420357657352</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>62.1697261052723</v>
+        <v>71.42078034157014</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>61.68698926314892</v>
+        <v>72.28396816923701</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>68.57197531668075</v>
+        <v>80.60283763633124</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>71.79213667428672</v>
+        <v>84.56887847261223</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>28.31417940505585</v>
+        <v>33.30675977527883</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>63.63769878206548</v>
+        <v>76.76741774789205</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>66.96976279696321</v>
+        <v>77.23315259538671</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>50.9100456956962</v>
+        <v>55.86670818882948</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>46.24994467894032</v>
+        <v>50.29301190967745</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>50.65717279642087</v>
+        <v>52.0557805339452</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>53.15024785356223</v>
+        <v>57.85967946296329</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>21.74107800600698</v>
+        <v>23.83627335495297</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>49.44315454803177</v>
+        <v>54.85198677173948</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>50.33847056224518</v>
+        <v>52.84186693332406</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>16.71222204785271</v>
+        <v>19.46798609317982</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>31.53546157803416</v>
+        <v>38.81835280446372</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>40.49663181173568</v>
+        <v>48.71112246609654</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>7.450957125843988</v>
+        <v>7.784661176094406</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>41.83148105960456</v>
+        <v>47.26156720421575</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>44.25635793912241</v>
+        <v>53.06046250513067</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>16.13396784397339</v>
+        <v>14.44072920910306</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>58.39572819949375</v>
+        <v>67.28825533362078</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>64.58399788925678</v>
+        <v>75.45832885814883</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>63.83439489017285</v>
+        <v>73.99242862748251</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>69.60079237331186</v>
+        <v>80.37910930340774</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>73.76812676208266</v>
+        <v>88.49422872413379</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>26.12918526877359</v>
+        <v>26.10451728728648</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>65.22046527109111</v>
+        <v>76.62191275803329</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>69.39305845070766</v>
+        <v>79.20561941155837</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>47.58721514380766</v>
+        <v>49.45373584812839</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>32.3654727439223</v>
+        <v>35.32170622056167</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>39.98093349059461</v>
+        <v>41.7103657270593</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>43.42297482841327</v>
+        <v>46.10380874995109</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>17.60444217641778</v>
+        <v>17.92634378810762</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>42.45260174369368</v>
+        <v>47.69558712129655</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>46.69935094083775</v>
+        <v>48.48307571648051</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>15.29377888033756</v>
+        <v>15.61620085136266</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>31.963362645065</v>
+        <v>40.2653970786053</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>43.13747328509726</v>
+        <v>53.08875461255165</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>8.000002850551773</v>
+        <v>9.180658918076762</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>38.68222346077987</v>
+        <v>46.37968075201819</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>44.88534875537297</v>
+        <v>56.34823493949096</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>14.20848756381882</v>
+        <v>13.81338718110903</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>52.13202723107666</v>
+        <v>64.80813332528824</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>63.53113400701314</v>
+        <v>77.8322550298287</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>51.46440965962851</v>
+        <v>65.45132974088044</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>63.92748375677495</v>
+        <v>80.17713352694571</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>72.098107860981</v>
+        <v>90.19154432468818</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>18.55736763059745</v>
+        <v>21.92991775812567</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>54.53199294269168</v>
+        <v>73.0532029789933</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>64.91099149741909</v>
+        <v>81.49025799370519</v>
       </c>
     </row>
   </sheetData>
